--- a/data/hotels_by_city/Dallas/Dallas_shard_383.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_383.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="733">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="824">
   <si>
     <t>STR#</t>
   </si>
@@ -147,6 +147,9 @@
     <t>response_text</t>
   </si>
   <si>
+    <t>ExTex2015</t>
+  </si>
+  <si>
     <t>06/12/2018</t>
   </si>
   <si>
@@ -186,6 +189,9 @@
     <t>We stayed 6 nights on a recommendation from a family member. All of the front desk personnel were wonderful and tried to fix all the problems. A live cockroach jumped out my shoe one morning. They changed our room. Next room, the overhead lights wouldn't turn off. Brought in a maintenance man. Then, the light over the sink wouldn't turn on. Difficult to put on make-up. Breakfast was just adequate. A horrible egg/cheese thing - rubbery &amp; dry. Gravy but no biscuits one morning. Room was only cleaned 2 or 3 times. I had to go and ask for fresh towels, cups, &amp; coffee. Our milk froze in the refrigerator. Fitness room had only 2 machines. We sat down with management. The manager wrote down all of the issues and promised to work on positive changes.More</t>
   </si>
   <si>
+    <t>glolilly</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56759-d657715-r518419654-Holiday_Inn_Express_Hotel_Suites_Terrell-Terrell_Texas.html</t>
   </si>
   <si>
@@ -210,6 +216,9 @@
     <t>The hotel was nice and quiet with the front desk friendly but great food but kitchen lady not too friendly and aloof. The price was a little steep for the area imo. Was offered discounts. The place was clean with no big issues. But from traveling a little, here are some things that could take them up a notch from a 4 to a 5. The coffee pots at noon contained coffee lukewarm to cold. Either keep them heated or throw it out. They had very limited cable channels and the stations lagged. We didn't have a floor light lamp for the second bed nor a ceiling light so it was too dark in the morning unless we opened the drapes wide for all to see. The bathtub was too small and didn't fit the wide shower pole, so water went to the floor. The worst for bed was the beds were to soft, lumpy, wobbly and uncomfortable because of an older mattress or cheap one, not sure. I did mention it at check out but I just got an ok. So with a few all little  flaws, we still enjoyed our stay.  We will probably go back though.More</t>
   </si>
   <si>
+    <t>Gary B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56759-d657715-r504279457-Holiday_Inn_Express_Hotel_Suites_Terrell-Terrell_Texas.html</t>
   </si>
   <si>
@@ -228,6 +237,9 @@
     <t>April 2017</t>
   </si>
   <si>
+    <t>Andrea C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56759-d657715-r503348453-Holiday_Inn_Express_Hotel_Suites_Terrell-Terrell_Texas.html</t>
   </si>
   <si>
@@ -255,6 +267,9 @@
     <t>Car broke down, needed a place. Room was very nice until we found dirty socks in the bathroom. Breakfast was pretty good. Very little protein. Pool and hot tub were awful. Bugs and dirty pool. Cold hot tub. Front desk staff not friendly. Not helpful. More</t>
   </si>
   <si>
+    <t>dawnsdlite</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56759-d657715-r498968769-Holiday_Inn_Express_Hotel_Suites_Terrell-Terrell_Texas.html</t>
   </si>
   <si>
@@ -276,6 +291,9 @@
     <t xml:space="preserve"> traveled with friends</t>
   </si>
   <si>
+    <t>cld61770</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56759-d657715-r493737382-Holiday_Inn_Express_Hotel_Suites_Terrell-Terrell_Texas.html</t>
   </si>
   <si>
@@ -300,6 +318,9 @@
     <t>The room was nice but house keeping was nonexistent. Half the time we were there house keeping didn't show. Also no ice machines worked in the entire hotel. TV channels impossible to manually select. Very odd setup. Free breakfast was ok. More</t>
   </si>
   <si>
+    <t>Brenda D</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56759-d657715-r449221029-Holiday_Inn_Express_Hotel_Suites_Terrell-Terrell_Texas.html</t>
   </si>
   <si>
@@ -327,6 +348,9 @@
     <t>Priced as a Vegas hotel, was like a 60's motel. Service was good, breakfast was passable, nothing special considering the price for one night lodging. My last time in Holiday Inn Express in Terrell, TX.More</t>
   </si>
   <si>
+    <t>hollyc57</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56759-d657715-r443545716-Holiday_Inn_Express_Hotel_Suites_Terrell-Terrell_Texas.html</t>
   </si>
   <si>
@@ -351,6 +375,9 @@
     <t>We have stayed at this hotel many times and have liked the amenities and the friendly staff.  It has been a few years since we were here and evidently the beds haven't been replace because they were hard and extremely uncomfortable.  It makes a big difference in the overall scheme of things.  However, the staff is still wonderful, breakfast was good with a great variety and it's close to the Interstate and shopping.More</t>
   </si>
   <si>
+    <t>Jennifer W</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56759-d657715-r441818025-Holiday_Inn_Express_Hotel_Suites_Terrell-Terrell_Texas.html</t>
   </si>
   <si>
@@ -375,6 +402,9 @@
     <t>Great hotel. Awesome location right off of i20. Breakfast was great and had a wide variety of choices. It included a pancake maker which is always a hit with my kids. Hotel staff was very friendly and accommodating as we had to check in two hours early in order to make it to the tournament. Thanks Holiday Inn Express for another wonderful time away from home!More</t>
   </si>
   <si>
+    <t>Michelle L</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56759-d657715-r441234336-Holiday_Inn_Express_Hotel_Suites_Terrell-Terrell_Texas.html</t>
   </si>
   <si>
@@ -402,6 +432,9 @@
     <t>The fine folks at this Holiday Inn were so accommodating. We had issues with using the TV and they always came up to help us right away. There is a church service there on Sundays too. We brought our dog cause we just thought they accepted dogs, but they made an allowance.  Thank you so so very much!More</t>
   </si>
   <si>
+    <t>GracieHart</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56759-d657715-r427418895-Holiday_Inn_Express_Hotel_Suites_Terrell-Terrell_Texas.html</t>
   </si>
   <si>
@@ -429,6 +462,9 @@
     <t>Room 302, was clean and neat, comfortable,  shower needs a little caulking as the shower head, knob, and faucet move as you turn the dial. A bit water damage but otherwise clean! Casey was helpful and friendly!... More</t>
   </si>
   <si>
+    <t>trbyrd12</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56759-d657715-r386977114-Holiday_Inn_Express_Hotel_Suites_Terrell-Terrell_Texas.html</t>
   </si>
   <si>
@@ -453,6 +489,9 @@
     <t>Nice place to stay. Courteous and helpful staff. I couldn't make the AC work and the staff from front desk came up and showed me how to work it. I also discovered there was not a hair dryer in my room so I called down to the front desk and was told that housekeeper had just arrived and they would bring me one up. I waited about 15-20 minutes and called back down and they could not find one. Good practice would be to have some spares on certain items available for times like this. Overall though I enjoyed my stay and would recommend this location.More</t>
   </si>
   <si>
+    <t>PastorBC</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56759-d657715-r384726739-Holiday_Inn_Express_Hotel_Suites_Terrell-Terrell_Texas.html</t>
   </si>
   <si>
@@ -474,6 +513,9 @@
     <t>We discovered a dirty room with only the walk area in the room vacuumed. There was toe nail clippings, spider webs, dust and signs of house keeping neglect. The 2nd floor laundry for guests had ceiling texture all over the floor and appliances. It was a sad sight.More</t>
   </si>
   <si>
+    <t>jenndelynn</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56759-d657715-r376982785-Holiday_Inn_Express_Hotel_Suites_Terrell-Terrell_Texas.html</t>
   </si>
   <si>
@@ -501,6 +543,9 @@
     <t>Came in town from sc for a funeral and stayed at the hotel. Excellent staff and even called 30 mins after arriving to make sure we had everything we needed in our room. Next morning the cleaning service picked up the room and put two complimentary waters in there. Very pleased with everything except during the cleaning I guess when they mop the elevator you can't use it. So I had to take the stairs to the 4th floor.More</t>
   </si>
   <si>
+    <t>HectorTOKYO</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56759-d657715-r374125233-Holiday_Inn_Express_Hotel_Suites_Terrell-Terrell_Texas.html</t>
   </si>
   <si>
@@ -528,6 +573,9 @@
     <t>Great place for stay, the have a very good swimming pool and a great gym to workout, great place to relax and rest when you go to town to work special when you work on construction they have the sane usual breakfast but it's good.More</t>
   </si>
   <si>
+    <t>judy6357</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56759-d657715-r371602953-Holiday_Inn_Express_Hotel_Suites_Terrell-Terrell_Texas.html</t>
   </si>
   <si>
@@ -555,6 +603,9 @@
     <t>I enjoyed my stay here.  The staff were very kind and friendly.  Very clean and comfortable and convenient to shopping, IHOP, and the interstate. The internet was a bit difficult as I couldn't stay connected very long.  I skipped breakfast as I wasn't hungry that morning, so unfortunately you will have to read other's reviews of the breakfast bar.  However, I would definitely stay again when in the area.More</t>
   </si>
   <si>
+    <t>Samuel T</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56759-d657715-r370521160-Holiday_Inn_Express_Hotel_Suites_Terrell-Terrell_Texas.html</t>
   </si>
   <si>
@@ -582,6 +633,9 @@
     <t>This is an annual stay to visit family in the area. I like staying here due to the consistently great service, breakfast, and coffee (including the great little flavored creamers). It is right next to an outlet mall so do some shopping if staying there. Also convent to Starbucks, Wendy's, other restaurants and stores. HINT: If you happen to be there at the end of the month check out "First Monday's" gigantic (understatement) flea market near Canton, TX just 20 miles away right off I-20 toward Louisiana. More</t>
   </si>
   <si>
+    <t>shinnerbock</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56759-d657715-r368415857-Holiday_Inn_Express_Hotel_Suites_Terrell-Terrell_Texas.html</t>
   </si>
   <si>
@@ -609,6 +663,9 @@
     <t>While traveling, the end of the day put me in the Terrell Texas area. I stopped for an overnight stay at the Holiday Inn Express in Terrell, which is conveniently located just off interstate 20. I had a very comfortable nights rest and woke up to a good warm breakfast in the morning. This property is clean and well maintained and I would definitely stay there again, if my travel day ends in this area.More</t>
   </si>
   <si>
+    <t>Sandra H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56759-d657715-r367445587-Holiday_Inn_Express_Hotel_Suites_Terrell-Terrell_Texas.html</t>
   </si>
   <si>
@@ -630,6 +687,9 @@
     <t>Positive experience. Front desk person was nice. Hotel was clean but you can tell it has been around for awhile. Room was nice- had everything you would need. Very close to shopping and a handful of restaurants.More</t>
   </si>
   <si>
+    <t>tomthbomb</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56759-d657715-r367015933-Holiday_Inn_Express_Hotel_Suites_Terrell-Terrell_Texas.html</t>
   </si>
   <si>
@@ -648,6 +708,9 @@
     <t>This is a well run property with a very courteous staff. The breakfast is as good as it gets at a HIX. I like the convenience of having a ground floor room. No elevators, quick load and unload. I move around a lot in my business, that that helps. At check in the desk staff found a ground floor room for me. Thanks!BUT, at 5:00 a.m. the door slamming competition begins. How many times and how loud can you slam the door wins.Next time I will haul my stuff upstairs.More</t>
   </si>
   <si>
+    <t>Lynn F</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56759-d657715-r330315368-Holiday_Inn_Express_Hotel_Suites_Terrell-Terrell_Texas.html</t>
   </si>
   <si>
@@ -675,6 +738,9 @@
     <t>Excellent facility.... Spotless rooms, staff very pleasant... Would definitely stay here again. Rooms very quiet, back off the highway.... Only down side was they were out of milk at breakfast and the juice machine  was out of order...... Slept like a rock....More</t>
   </si>
   <si>
+    <t>Katehunni</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56759-d657715-r320907162-Holiday_Inn_Express_Hotel_Suites_Terrell-Terrell_Texas.html</t>
   </si>
   <si>
@@ -702,6 +768,9 @@
     <t>We were in town briefly for a family wedding, and really wanted to check in early so our toddler could get her nap.  The hotel was very busy with Texas/OU Weekend and 2 weddings, but the front desk was more than helpful and made sure we received the first available room...much earlier than regular check in time!More</t>
   </si>
   <si>
+    <t>Dennis J</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56759-d657715-r315497181-Holiday_Inn_Express_Hotel_Suites_Terrell-Terrell_Texas.html</t>
   </si>
   <si>
@@ -729,6 +798,9 @@
     <t>I was here with the wife and it was a nice room, clean and not noisy at all. Really enjoyed the stay, will come again. The only draw back for me was it was pretty pricey...If you get a chance to stay here, go for it...More</t>
   </si>
   <si>
+    <t>Tag G</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56759-d657715-r314008481-Holiday_Inn_Express_Hotel_Suites_Terrell-Terrell_Texas.html</t>
   </si>
   <si>
@@ -756,6 +828,9 @@
     <t>Stopped in after making a phone reservation.  Staff was friendly and helpful.  This was my first stay at this location.  I found it to be clean and comfortable.  I would probably stay again.  They do recognize my IHG status but forgot to add the welcome points.More</t>
   </si>
   <si>
+    <t>Kathy A</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56759-d657715-r305350945-Holiday_Inn_Express_Hotel_Suites_Terrell-Terrell_Texas.html</t>
   </si>
   <si>
@@ -783,6 +858,9 @@
     <t>Clean room, good location.  Front desk staff very friendly.  Breakfast was average but very  friendly staff.  Lots of hot coffee and cinnamon rolls. Hot tub and pool closed for repairs.   Rates cheaper than I have stayed in a long time.  Suites are very large.  More</t>
   </si>
   <si>
+    <t>Nan T</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56759-d657715-r300387813-Holiday_Inn_Express_Hotel_Suites_Terrell-Terrell_Texas.html</t>
   </si>
   <si>
@@ -801,6 +879,9 @@
     <t>This is a very new facility and well kept.  Everyone on staff was helpful and personable.  It was near a Tanger Outlet Mall and many dining opportunities.  Though it was just off I-20, it was far enough removed that we heard no noise. After driving through Dallas, we were relieved to be here!!More</t>
   </si>
   <si>
+    <t>Clark L</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56759-d657715-r287900572-Holiday_Inn_Express_Hotel_Suites_Terrell-Terrell_Texas.html</t>
   </si>
   <si>
@@ -828,6 +909,9 @@
     <t>Beautiful facility. Very restful atmosphere. Very nice staff.  Indoor pool was great to avoid the sun and rain last time we were there.  Breakfast was very good (except the sausage - pretty sure it was not pork !)  We will stay there again.More</t>
   </si>
   <si>
+    <t>Bill H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56759-d657715-r287832541-Holiday_Inn_Express_Hotel_Suites_Terrell-Terrell_Texas.html</t>
   </si>
   <si>
@@ -861,6 +945,9 @@
     <t>Stayed here once before this trip and it was ok. This time - first room I got had no working A/C. I was promptly given another room - no hassles. That room was ok...but the cleaning crew had been sloppy. Carpet not vacuumed, trash on floor of bathroom behind door, nasty stains on sofa. The linens were clean and the bed was clean. I mentioned it to the clerk - and the next day the room was spotless. I appreciate the prompt and appropriate responses the staff provided. It would have been nice to have a clean room to start with...but everything was addressed with good service. Will stay again if I am in the area but hope the construction is done and the housekeeping is up to HIE standards first time around.More</t>
   </si>
   <si>
+    <t>fryfamilygermany</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56759-d657715-r284440810-Holiday_Inn_Express_Hotel_Suites_Terrell-Terrell_Texas.html</t>
   </si>
   <si>
@@ -888,6 +975,9 @@
     <t>We were in town for a wedding and spent the night here.  Very nice hotel.  The king suite room was extremely large.  The gym was being remodeled but they offered us another gym to go to.  They offered a nice breakfast.More</t>
   </si>
   <si>
+    <t>KiloBravo1</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56759-d657715-r236941366-Holiday_Inn_Express_Hotel_Suites_Terrell-Terrell_Texas.html</t>
   </si>
   <si>
@@ -915,6 +1005,9 @@
     <t>After looking at another hotel and deciding it wasn't for me that night, pulled into the Holiday Inn Express without any reservations and from what the manager told me the last available room. Hotel was clean, nicely kept, carpets look good, well lite parking lot. Breakfast bar was the usual the attendant was very kind and made several rounds refilling server trays. Good local restaurant was in easy walking distance as well as several chain restaurants. Will be happy to stay again.More</t>
   </si>
   <si>
+    <t>Tracy G</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56759-d657715-r234486482-Holiday_Inn_Express_Hotel_Suites_Terrell-Terrell_Texas.html</t>
   </si>
   <si>
@@ -954,6 +1047,9 @@
     <t>There were no rooms available but the manager gave the handicap room to us. Room was very clean, staff friendly. Especially enjoyed the free breakfast.  Buffet offered many options, eggs, pancakes, French toast and many more items. Great place to spend the night!More</t>
   </si>
   <si>
+    <t>Brian E H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56759-d657715-r228863287-Holiday_Inn_Express_Hotel_Suites_Terrell-Terrell_Texas.html</t>
   </si>
   <si>
@@ -978,6 +1074,9 @@
     <t>This was probably the worst HI Express I have stayed in. Just fairly clean. Had dead roaches in my room (guess I should be glad they were dead), they had lock issues with our room, could only let us in by using the passkey for the cleaning folks. Alarm clock in room did not work. This was just not up to par for what I was used to in prior stays in HI Express facilities elsewhere.More</t>
   </si>
   <si>
+    <t>Cindy M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56759-d657715-r226488343-Holiday_Inn_Express_Hotel_Suites_Terrell-Terrell_Texas.html</t>
   </si>
   <si>
@@ -1005,6 +1104,9 @@
     <t>We stayed here on a short vaca and found it to be clean, comfortable, and convenient to restaurants and shopping.  Breakfast was delicious, and the hostess was friendly and helpful.  Would definitely stay here again!More</t>
   </si>
   <si>
+    <t>sarah d</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56759-d657715-r222932128-Holiday_Inn_Express_Hotel_Suites_Terrell-Terrell_Texas.html</t>
   </si>
   <si>
@@ -1029,6 +1131,9 @@
     <t>this holiday inn is simply amazing the staff is really nice brittany was very nice and helpful the room was clean and neat and it was very quitet and relaxing i would def stay at this hotel again and tell everyone i know to stay at this hotel one of the best i have stayed atMore</t>
   </si>
   <si>
+    <t>pittmasha</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56759-d657715-r219091217-Holiday_Inn_Express_Hotel_Suites_Terrell-Terrell_Texas.html</t>
   </si>
   <si>
@@ -1053,6 +1158,9 @@
     <t>We stayed in the hotel for 4 nights while attending a funeral in the Dallas area. We loved this hotel! First expression is clean, up to date and welcoming staff. Every time is left the room I saw deep cleaning going on in various areas. Breakfast was above par! Rooms were perfect and clean. Pillows were great! Staff very attentive! Quiet! Can't say enough good stuff! More</t>
   </si>
   <si>
+    <t>Ronmarta</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56759-d657715-r217296119-Holiday_Inn_Express_Hotel_Suites_Terrell-Terrell_Texas.html</t>
   </si>
   <si>
@@ -1080,6 +1188,9 @@
     <t>From the time we checked in for a three-night stay everyone was very nice and friendly. The breakfast, which we expected would be mainly fruit, cereal, coffee,etc included bacon, sausage, and other choices. The facility was clean and very quiet.   We liked that it was close to Dallas and the Tyler area where we visited family. There are three restaurants and a small outlet mall less than a minute away.  We are going back in the Fall for the State Fair and will choose to stay at the HI in Terrell again.More</t>
   </si>
   <si>
+    <t>michael m</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56759-d657715-r214765764-Holiday_Inn_Express_Hotel_Suites_Terrell-Terrell_Texas.html</t>
   </si>
   <si>
@@ -1104,6 +1215,9 @@
     <t>We had a mix up on our reservations, but Brittany, the front desk clerk,  was our hero for the night! The rooms were clean and quiet. The hot tub was hot, but the jets were not jetting. It was like sitting in a really hot tub of water...:)The entrance is kind of hard to get to, the road to the entrance is past the fast food places.With-in walking distance of the outlet mall.More</t>
   </si>
   <si>
+    <t>Lisa A</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56759-d657715-r208553593-Holiday_Inn_Express_Hotel_Suites_Terrell-Terrell_Texas.html</t>
   </si>
   <si>
@@ -1123,6 +1237,9 @@
   </si>
   <si>
     <t>The hallways smelled clean and fresh.  The bed was really comfortable and so were the pillows.  Front desk people were friendly and polite.  Breakfast was fresh and warm and the wait staff was so friendly.  I liked that the countertop height in the bathroom was so high.  The AC was sort of annoying.  For the amount of noise it made, I really thought it should have kept the room cooler.  It also blew directly under the drapes and I had to find something heavy to prop against the drapes to keep them blowing away from the window and absorbing all the air from the AC.  I had a king room and didn't feel that the furniture was too low (according to a previous reviewer's post.) All in all, I would definitely stay here again.More</t>
+  </si>
+  <si>
+    <t>linda g</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56759-d657715-r207318778-Holiday_Inn_Express_Hotel_Suites_Terrell-Terrell_Texas.html</t>
@@ -1155,6 +1272,9 @@
 Note on the ice machines.....I picked this hotel for a 2 night stay, based on all of the very positive reviews here.  Perhaps our experience was atypical, but I was very disappointed in the property.When we first arrived Friday night, there was no one at the front desk.  That always gives me an aggravating start, especially with a tired family who just wants their room.  There was another family sitting and waiting.  There was a sign on the desk, but still.  I went back to my car to call the hotel to try and raise someone to get us checked in.  The clerk returned in the middle of me calling.  While she might of just been gone a short time (which I have no way to know), still not a good start when the desk isn't staffed.  (I make this comment as every time during our stay we went to the front desk, it was ALWAYS empty).  Beyond aggravating.  It appears the model here is that the one desk person does everything..... so they can't always be at the desk.  Bad business model.I had booked a king room.  I do not believe the bed was anywhere near what I consider a king.  Me and my two kids slept in it, and none of us could move.  Plus, the room was very small.  If I ever have to stay here again, would definitely not book a king bed.Note on the ice machines.. they are not on every floor.  We stayed on the 4th, ice was on 3rd or ground.  Again, aggravating.  Why do they build hotels without ice on each floor.  Did like the noisy air conditioning, as that helps drown out other noises.  Tried the pool/spa.  The spa had only warm water, and the jets did not work.  The water from the main pool overflowed into the spa.  There were 8+ kids, with no adult supervision.  They were so loud and causing such a scene that we could not stand to stay in the pool area.  When we swung by the front desk to complain, no one was there.Tried the breakfast buffet sat morning right at 7 when it opened, as we had some place to be shortly thereafter.  It looked like the front desk staff was the one manning the buffet, as I ran by the front desk to get directions and no one was there.  My kids tried to grab some quick items, but there wasn't much to pick from.  We tried to get a pancake out of the pancake maker, but it either wasn't on or was broken.  The buffet did not match what I am used to for holiday inn express.  We opted for the IHOP right next door for Sunday morning.  Much better.All in all, disappointed.More</t>
   </si>
   <si>
+    <t>AMGSTL</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56759-d657715-r202137380-Holiday_Inn_Express_Hotel_Suites_Terrell-Terrell_Texas.html</t>
   </si>
   <si>
@@ -1182,6 +1302,9 @@
     <t>Disappointing.  I checked in to my $129/night king room (Room 201) only to find that it was apparently a wheelchair room with very low furniture -- low dresser, low toilet, etc.  I called the front desk and politely asked for new room.  Justin first told me that he would switch me to a new room, but then told me that this was the normal setup for king rooms and that all other rooms would be the same.  So, according to the front desk, all king rooms at this hotel are  wheelchair rooms.  Very disappointing, especially for $129/night.  I won't stay here again.More</t>
   </si>
   <si>
+    <t>KathrynTN</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56759-d657715-r201194755-Holiday_Inn_Express_Hotel_Suites_Terrell-Terrell_Texas.html</t>
   </si>
   <si>
@@ -1209,6 +1332,9 @@
     <t>Loved that the staff was so enthusiastic about the pillows. My daughter and I were passing through late at night. After standing at the desk of the place next door, we headed over here and were not disappointed. Indeed the pillows were heaven and we slept like angels. More</t>
   </si>
   <si>
+    <t>Kirk B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56759-d657715-r201110684-Holiday_Inn_Express_Hotel_Suites_Terrell-Terrell_Texas.html</t>
   </si>
   <si>
@@ -1227,6 +1353,9 @@
     <t>Very nice HI Express.  The hotel was adjacent to great shopping, dining, and just 30 minutes from the Canton Trades Days.  Check-in went very well with Sara being very helpful.  The room was roomy, clean, and the breakfast was above average.  We had a problem with noise from the room above us, but the night clerk (Robert I think) promptly helped out successfully.  Nice stay.More</t>
   </si>
   <si>
+    <t>Traveler254_12</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56759-d657715-r200972834-Holiday_Inn_Express_Hotel_Suites_Terrell-Terrell_Texas.html</t>
   </si>
   <si>
@@ -1248,6 +1377,9 @@
     <t>Just stayed here for a quick over night stay but what we experienced was nice.  Location good.  Pool was small but nice and warm, hot tub hot.  Rooms were adequate. Breakfast was good: quick made pancakes, omelette, sausage, coffee, juices and more.  Price was average. Would stay again if in the area again. More</t>
   </si>
   <si>
+    <t>kmbama</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56759-d657715-r200594937-Holiday_Inn_Express_Hotel_Suites_Terrell-Terrell_Texas.html</t>
   </si>
   <si>
@@ -1272,6 +1404,9 @@
     <t>This was an excellent hotel to stay in. The room was very nice and the young man at the desk was very friendly and most helpful. The lady attending the breakfast area was very nice and accommodating. We will definitely stay here again. Thy also quickly honored the coupon we had from the Texas travel stopMore</t>
   </si>
   <si>
+    <t>Linder2</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56759-d657715-r199230801-Holiday_Inn_Express_Hotel_Suites_Terrell-Terrell_Texas.html</t>
   </si>
   <si>
@@ -1299,6 +1434,9 @@
     <t>Very nice. The young man at the desk was very friendly and helpful. We had a coupon from one of the rest area pamphlets, so got a great rate. We walked over to the Silver Saloon for a tasty burger and listened to the band for awhile. All good. The bed was comfortable, bathroom clean, etc. we saw people in the pool and that area also looked clean and well attended.   The breakfast area was clean and attractive. We were early but the lady on duty got us a couple delicious cinnamon rolls and hot coffee before we left. Would highly recommend. More</t>
   </si>
   <si>
+    <t>angla619</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56759-d657715-r196184239-Holiday_Inn_Express_Hotel_Suites_Terrell-Terrell_Texas.html</t>
   </si>
   <si>
@@ -1323,6 +1461,9 @@
     <t>We were stuck in a freak ice storm driving from Dallas to Alabama and had to pull off the road.  Alex was great in getting us a room quickly to get us out of the cold!!! We pulled up and there were 3 cars - an hour later they seemed to be a full house!! Our room was spacious and clean- the kids were very impressed!! :) The beds were comfortable and we all slept well, and the indoor pool was a nice treat after being cooped up in the car.  It is also conveniently located to different food options.  They ran out of towels and hot water for a bit but we knew to be patient as they surely weren't expecting to be at full capacity on a random Monday.  Also the people upstairs were overly rambunctious but the staff was quick to get them to quiet down once we called as bedtime rolled around.  I would definitely stay here again if I was in the area,More</t>
   </si>
   <si>
+    <t>larry C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56759-d657715-r196050023-Holiday_Inn_Express_Hotel_Suites_Terrell-Terrell_Texas.html</t>
   </si>
   <si>
@@ -1347,6 +1488,9 @@
     <t>The quality of managment has been going down hill rapidly.  this hotel was the worst in a while with several maintenance issues that they did not seem to care about.  I will not stay at this one again.  Been here over a month was lucky enough to sleep in a 50 degree room because they would not fix the heater.  when it went out the desk attendent did not care and would not call anyone to fix it just said there is nothing we can do for you.More</t>
   </si>
   <si>
+    <t>IslaholicIslamujeres</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56759-d657715-r194099160-Holiday_Inn_Express_Hotel_Suites_Terrell-Terrell_Texas.html</t>
   </si>
   <si>
@@ -1380,6 +1524,9 @@
     <t>October 2013</t>
   </si>
   <si>
+    <t>Stephanie C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56759-d657715-r179943498-Holiday_Inn_Express_Hotel_Suites_Terrell-Terrell_Texas.html</t>
   </si>
   <si>
@@ -1395,6 +1542,9 @@
     <t>Friendly staff, clean rooms, grey breakfast. Attention to detail!!! Spacious King room with large bathroom and luxury linens made for a great stay.  The hot food was hot an the coffee was strong and plentiful. Yummy cinnamon rolls with to go boxes too. Overall great experience.</t>
   </si>
   <si>
+    <t>JamesRoscoe1979</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56759-d657715-r172295995-Holiday_Inn_Express_Hotel_Suites_Terrell-Terrell_Texas.html</t>
   </si>
   <si>
@@ -1422,6 +1572,9 @@
     <t>We arrived at the location being greeted by a super friendly desk clerk. Check in was really fast and painless. We went to our rooms and found them to be spotless and comfortable. The beds were amazing and felt wonderful. The price was great for the stay. I would absolutely recommend this hotel to someone. Within walking distance of a large shopping center. The breakfast was really good and well stocked. And the price for the stay was great.More</t>
   </si>
   <si>
+    <t>jen g</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56759-d657715-r169944507-Holiday_Inn_Express_Hotel_Suites_Terrell-Terrell_Texas.html</t>
   </si>
   <si>
@@ -1443,6 +1596,9 @@
     <t>The staff is very helpful and firendly. Rooms were very clean and beds comfortable. Continental breakfast was excellent. I would defintiely recommend giving them a try, I will use them again when in the area.They are also located next door to Tanger Outlets and there is a movie theater within walking distance for those on business who may want to get out in the evening.More</t>
   </si>
   <si>
+    <t>JJM1</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56759-d657715-r167421616-Holiday_Inn_Express_Hotel_Suites_Terrell-Terrell_Texas.html</t>
   </si>
   <si>
@@ -1464,6 +1620,9 @@
     <t>When we arrived (very late at night) we were informed the elevator was down and a service person was on the way. Not a problem - staff offered to carry luggage upstairs. Upon departure in the morning the elevator was working as promised. Great staff, clean room and really reasonably priced. Good breakfast.More</t>
   </si>
   <si>
+    <t>BlazerGB</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56759-d657715-r154897639-Holiday_Inn_Express_Hotel_Suites_Terrell-Terrell_Texas.html</t>
   </si>
   <si>
@@ -1482,6 +1641,9 @@
     <t>March 2013</t>
   </si>
   <si>
+    <t>Wearywriter</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56759-d657715-r154560774-Holiday_Inn_Express_Hotel_Suites_Terrell-Terrell_Texas.html</t>
   </si>
   <si>
@@ -1506,6 +1668,9 @@
     <t>This was a spur-of-the-moment stop while on the road. Easily accessible and close to dining, this hotel seemed like a good choice. The room was extremely nice and clean, with soft, comfortable bedding and plenty of room. The bathroom was in great shape and spotless.There are a couple of cons, though. The swimming pool must be quite close to the elevator, because there was a strong chlorine smell. A couple of times there was water on the floor in front of the elevator doors, which seems quite dangerous for people trying to maneuver luggage onto an elevator. Also, this hotel is rather loud. There were some kids staying on my floor, and I could hear them running up and down the hallways, screaming and slamming doors. This hotel would be a good option for families, but not so much for couples or business travelers who would like a little quiet.Also, this hotel was quite expensive for a Holiday Inn Express. I stay in a lot of Marriott, Hyatt and Hilton chain hotels, and this was between $30 and $50 more per night than a comparable Courtyard or Residence Inn.More</t>
   </si>
   <si>
+    <t>TimidTraveler55</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56759-d657715-r149800126-Holiday_Inn_Express_Hotel_Suites_Terrell-Terrell_Texas.html</t>
   </si>
   <si>
@@ -1533,6 +1698,9 @@
     <t>The hotel staff were great and the room very clean. The bed was extremely comfortable. I just want to caution visitors that I parked in the side parking lot and when I left the next morning my gas cap was open and the tank lid pulled out. Apparently someone tried to steal my fuel, but were unable to do so since my tank cannot be siphoned. I realize the hotel staff cannot control this type of problem, but guests need to be aware.More</t>
   </si>
   <si>
+    <t>ScribblesLongBeachCA</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56759-d657715-r145278428-Holiday_Inn_Express_Hotel_Suites_Terrell-Terrell_Texas.html</t>
   </si>
   <si>
@@ -1554,6 +1722,9 @@
     <t>Agree with previous review; based on the price, this property didn't shine above all other options. The printer in the business center was "broken" and couldn't be fixed. There was no manager on duty at all, she would return in the morning. Really?! That's bizarre. The room was large and fairly clean. The fixtures in the tub was loose and barely hanging on to the wall. The carpet seemed worn. There were no laundry facilities. And the oddest thing... the room had a HUGE bare area - with nothing there, no couch, no desk, no end table, no chair.. nothing. Check your room here before you commit. The breakfast, as the previous reviewed mentioned, was just okay. No fresh fruit. Weird again. Just not up to general HI Express standards to me. On the upside, Alex at the front desk did try his best.More</t>
   </si>
   <si>
+    <t>John K</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56759-d657715-r143734509-Holiday_Inn_Express_Hotel_Suites_Terrell-Terrell_Texas.html</t>
   </si>
   <si>
@@ -1608,6 +1779,9 @@
     <t>I did not know the area at all, but this hotel was recommended and I'm glad I stayed there!  The staff went way above and beyond in being helpful, friendly, and willing to do whatever.  The rate was very reasonable, the room a nice size and the air conditioner worked GREAT.  (It was over 100 degrees, so that was important).Everything about the property was clean and well maintained.  It was a very safe environment and good value (with the AAA discount).  Would highly recommend it.More</t>
   </si>
   <si>
+    <t>MC C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56759-d657715-r141166546-Holiday_Inn_Express_Hotel_Suites_Terrell-Terrell_Texas.html</t>
   </si>
   <si>
@@ -1635,6 +1809,9 @@
     <t>I stayed at this hotel over the weekend &amp; I paid cash for my room and found out today that I have a pending charge of $50 on my debit card from this hotel. They told me at check in that my debit card would not be charged unless there was something wrong with the room once I checked out (the $50 charge was placed at the time of my check in).  Also, the bed was probably the most uncomfortable bed that I have ever slept in.More</t>
   </si>
   <si>
+    <t>CCMOMMY86</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56759-d657715-r139621838-Holiday_Inn_Express_Hotel_Suites_Terrell-Terrell_Texas.html</t>
   </si>
   <si>
@@ -1653,6 +1830,9 @@
     <t>We held our wedding reception party in the meeeting room back in January. The employees were helpful and willing to work with me on several items. You get what you pay for, this was a nice room for a nice price. I would recommend this place for anyone holding an event.More</t>
   </si>
   <si>
+    <t>susannjay</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56759-d657715-r139517166-Holiday_Inn_Express_Hotel_Suites_Terrell-Terrell_Texas.html</t>
   </si>
   <si>
@@ -1674,6 +1854,9 @@
     <t>Hotel is easily accessed from the interstate. I spent one night at this hotel.  It was very average.  Not really anything special...the room was clean, but a little worn.  There was a lot of space between the king side bed and the window, which was nice.  There was a desk, chair, ottoman, and large television.  The bathroom was plain and although it was clean, it showed wear.  The room was on the fourth floor.  The breakfast was decent--omelettes, bread/muffins, cereal, yogurt--the typical fare.  I don't have overly high expectations, but the room cost me over $170. and just was not anything special.  It was the weekend of Canton's flea market, so I am guessing that is why it was higher than usual.  People at the desk were cordial but not informative...I think it is better when they give out information that people usually want to know--what time breakfast is served, where the pool is located, etc.More</t>
   </si>
   <si>
+    <t>Jodie M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56759-d657715-r136515335-Holiday_Inn_Express_Hotel_Suites_Terrell-Terrell_Texas.html</t>
   </si>
   <si>
@@ -1692,6 +1875,9 @@
     <t>Good location, free breakfast did not eat the breakfast but there is a IHOP in walking distance from the hotel. Outlet Mall across the street. Room was very clean and spacious. Would stay here again. About 30 minutes from Canton and Dallas.More</t>
   </si>
   <si>
+    <t>gmayfie</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56759-d657715-r136241614-Holiday_Inn_Express_Hotel_Suites_Terrell-Terrell_Texas.html</t>
   </si>
   <si>
@@ -1710,6 +1896,9 @@
     <t>We stopped here on our way through Texas.  It was conveniently located off I-20.  The room was large, clean and quiet.  The bed and pillows were incredibly comfortable, but we also had been on the road for 12 hours.  We were not sure we would make it that far, so I did not make an online reservation.  This was unfortunate as we had to pay more by waiting until we were checking in.  I will try to avoid that in the future.  The breakfast was very good.  I always like being able to get breakfast before heading out rather than having to stop along the way.More</t>
   </si>
   <si>
+    <t>Kate J</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56759-d657715-r135547255-Holiday_Inn_Express_Hotel_Suites_Terrell-Terrell_Texas.html</t>
   </si>
   <si>
@@ -1728,6 +1917,9 @@
     <t>Pros: 1. Free breakfast 2. Directly off the freeway 3. Spacious room 4. Hair dryer and coffee maker in the room 5. Very quiet 6. Friendly and available front desk staff 7. Plenty of parking 8. Neighborhood felt safe Cons: 1. The sheets felt dirty. I can't prove that they were, but there was no starchy clean feeling. They felt and smelled like someone had already slept in the bed. 2. Breakfast didn't look very appetizing. But it was free! Beggars can't be choosers. 3. The air conditioner was crazy LOUD! It woke me up everytime it would turn on in the night. 4. The gym is super tiny and several of the work out machines didn't even turn on.More</t>
   </si>
   <si>
+    <t>annieforttexas</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56759-d657715-r133305645-Holiday_Inn_Express_Hotel_Suites_Terrell-Terrell_Texas.html</t>
   </si>
   <si>
@@ -1749,6 +1941,9 @@
     <t>I went to a wedding at the hotel. Everything was perfect from check in to check out. Continental breakfast was very good. The room was spotless. Would stay there again.More</t>
   </si>
   <si>
+    <t>Lacubfan</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56759-d657715-r132215730-Holiday_Inn_Express_Hotel_Suites_Terrell-Terrell_Texas.html</t>
   </si>
   <si>
@@ -1764,6 +1959,9 @@
     <t>Great staff and very quiet. Had fresh cookies ready upon our arrival. Breakfast was good. Great location if you are headed to Tanger Outlets.</t>
   </si>
   <si>
+    <t>Vicki4141</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56759-d657715-r131756976-Holiday_Inn_Express_Hotel_Suites_Terrell-Terrell_Texas.html</t>
   </si>
   <si>
@@ -1779,6 +1977,9 @@
     <t>Free breakfast, comfortable common area w/flat screen tv, friendly service, washer/dryer convienently located on the 2nd floor, large room and bathroom- out of 6 holiday inns during our road trip this one was the best!</t>
   </si>
   <si>
+    <t>Gene W</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56759-d657715-r131640769-Holiday_Inn_Express_Hotel_Suites_Terrell-Terrell_Texas.html</t>
   </si>
   <si>
@@ -1803,6 +2004,9 @@
     <t>Over-priced with horrible service! I will NEVER stay here again or at any of the OurHotels chain hotels. Go down the street to the LaQuinta which is just as nice at 1/2 the price.More</t>
   </si>
   <si>
+    <t>threeboys1</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56759-d657715-r129432589-Holiday_Inn_Express_Hotel_Suites_Terrell-Terrell_Texas.html</t>
   </si>
   <si>
@@ -1821,6 +2025,9 @@
     <t>May 2012</t>
   </si>
   <si>
+    <t>pushincushin</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56759-d657715-r128400497-Holiday_Inn_Express_Hotel_Suites_Terrell-Terrell_Texas.html</t>
   </si>
   <si>
@@ -1839,6 +2046,9 @@
     <t>April 2012</t>
   </si>
   <si>
+    <t>Kim S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56759-d657715-r128222845-Holiday_Inn_Express_Hotel_Suites_Terrell-Terrell_Texas.html</t>
   </si>
   <si>
@@ -1854,6 +2064,9 @@
     <t>The hotel is extremely clean and the staff are incredibly friendly and helpful.  The room accomodations are excellent!</t>
   </si>
   <si>
+    <t>tcuckt</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56759-d657715-r127494797-Holiday_Inn_Express_Hotel_Suites_Terrell-Terrell_Texas.html</t>
   </si>
   <si>
@@ -1872,6 +2085,9 @@
     <t>We were in Terrell for one night and it was a last minute trip, so I called the Holiday Inn Express for a reservation and Kristy was so nice and kind - she quickly made my reservation.  When I called a few hours later to confirm, there was a glitch in the reservations so Lauren had to call Kristy, even though she was off to confirm.  Lauren had a quick turnaround and called me back to confirm and I informed her that we would be late and she said that wasn't a problem at all. When we finally checked in, Lizzie was awesome!  Even though it was late, she had a smile and a warm welcome.  The hot breakfast was terrific, the room was a good size and the fixtures in the bedroom were well done and kept in immaculate shape.  This is the only place to stay in Terrell!More</t>
   </si>
   <si>
+    <t>karen w</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56759-d657715-r126911290-Holiday_Inn_Express_Hotel_Suites_Terrell-Terrell_Texas.html</t>
   </si>
   <si>
@@ -1899,6 +2115,9 @@
     <t>If you are traveling to Terrell, TX...this is the hotel to stay.  Kelly Riley and her team (Larry, Lauren, Laci, Lizzie, and Brittany) provided such wonderful care and attention.  My primary contact, Kelly, is just the best.  She was available, thorough in how she handled business, and professional.  Most important, Kelly was kind.  Thanks to them all...More</t>
   </si>
   <si>
+    <t>Jim G</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56759-d657715-r126845606-Holiday_Inn_Express_Hotel_Suites_Terrell-Terrell_Texas.html</t>
   </si>
   <si>
@@ -1917,6 +2136,9 @@
     <t>The staff at the Holiday Inn Express Hotel and Suites in Terrell, Texas was on top of their game.  From the efficient check-in, to the well-kept room, to the daily breakfast, to the evening cookies,  every person did a great job of caring for our group.  My room was huge!More</t>
   </si>
   <si>
+    <t>Eddie S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56759-d657715-r126845269-Holiday_Inn_Express_Hotel_Suites_Terrell-Terrell_Texas.html</t>
   </si>
   <si>
@@ -1929,6 +2151,9 @@
     <t>I would recommend this hotel to any traveler. It is very well maintained. It is quiet and very comfortable. The staff are very friendly and helpful. The only thing I would change is maybe boost the internet speed a little. Other than that it was a great place to stay.</t>
   </si>
   <si>
+    <t>birdonthebeach</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56759-d657715-r126838378-Holiday_Inn_Express_Hotel_Suites_Terrell-Terrell_Texas.html</t>
   </si>
   <si>
@@ -1944,6 +2169,9 @@
     <t>Stayed here on business with a large group for a long weekend.  Laci and the entire front desk staff were amazing - so quick to help and very friendly.  Special thanks to Kelly for making it all happen for our group!  Hotel is very convenient, next to Tanger Outlets, IHOP, and I-20.  Rooms were always clean and maid service happened early every day.  What more could you ask for?!More</t>
   </si>
   <si>
+    <t>Bob H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56759-d657715-r126773394-Holiday_Inn_Express_Hotel_Suites_Terrell-Terrell_Texas.html</t>
   </si>
   <si>
@@ -1962,6 +2190,9 @@
     <t>Our group was in Terrell the week of March 19.  The entire staff treated us like family.  We felt very wecomed there and every need was met.  We were so happy to be able to get to know the team there and hope we had a positive impact on them as they did on us.  Keep up the great work!!More</t>
   </si>
   <si>
+    <t>PhyllisSoderstrom</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56759-d657715-r126756027-Holiday_Inn_Express_Hotel_Suites_Terrell-Terrell_Texas.html</t>
   </si>
   <si>
@@ -1974,6 +2205,9 @@
     <t>We enjoyed our stay at the Holiday Inn Express Hotel &amp; Suites in Terrell Texas. The employees at the desk when we arrived were friendly, helpful and made us feel very welcome.  Those who took care of our spacious room had it cleaned and taken care whenever it was convenient for us each day.  The ladies who set up the delicious breakfast buffet had it ready by 6:00am and we enjoyed their friendliness in the early mornings.  Everyone at the Hotel worked hard to make us feel at home.</t>
   </si>
   <si>
+    <t>djackson52</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56759-d657715-r126705565-Holiday_Inn_Express_Hotel_Suites_Terrell-Terrell_Texas.html</t>
   </si>
   <si>
@@ -1992,6 +2226,9 @@
     <t>I just stayed at this hotel for a week on business and was so impressed with the service and friendliness of all the staff.  Especially, Kelly Riley, and the rest of her Team:  Larry, Lauren, Laci, Lizzie, and Brittany.  Thanks for taking such good care of us!More</t>
   </si>
   <si>
+    <t>NYgal62</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56759-d657715-r126654439-Holiday_Inn_Express_Hotel_Suites_Terrell-Terrell_Texas.html</t>
   </si>
   <si>
@@ -2007,6 +2244,9 @@
     <t>I loved the employees at this hotel.... Kind southern and accommodating. Stayed 4 nights... It was clean.... Great free breakfast........ Less than a hundred a night!!!</t>
   </si>
   <si>
+    <t>amanda h</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56759-d657715-r124277732-Holiday_Inn_Express_Hotel_Suites_Terrell-Terrell_Texas.html</t>
   </si>
   <si>
@@ -2031,6 +2271,9 @@
     <t>I was traveling really late and arrived only to find the hotel completely sold out!  Meloney assisted me in finding another Holiday Inn Express.    Then later that week on my way back through Terrell I called ahead.    When I arrived  a the hotel  it was nice to see the friendly face of such a kind woman. Thank you Meloney.   You take good care of weary travelers.   from amanda (Feb. 2012)More</t>
   </si>
   <si>
+    <t>auctionflyer</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56759-d657715-r123988452-Holiday_Inn_Express_Hotel_Suites_Terrell-Terrell_Texas.html</t>
   </si>
   <si>
@@ -2049,6 +2292,9 @@
     <t>I travel 4 days a week all across the US for work. I come into Terrell about once every few months and every time I stay here. It is truely rare to find a staff who is so in touch with what their clients want. Everyone here goes the extra step to make sure that your stay is the absolute best and it always is. I do recommend this hotel to any of my co-workers doing business in the area because it is that nice.More</t>
   </si>
   <si>
+    <t>jimmy k</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56759-d657715-r123889887-Holiday_Inn_Express_Hotel_Suites_Terrell-Terrell_Texas.html</t>
   </si>
   <si>
@@ -2070,6 +2316,9 @@
     <t>Over the past 15 years, I have averaged about 3 overnight stays a week at various motels in several states.  The staff at the Holiday Inn Express Inn &amp; Suites at Terrell, TX ranks second to none.  Most of my interaction was with Kelley, Brittany and Meloney  and never was a kindness or service anything less than fantastic.  The property is very nice and always extremely clean and neat.  Wake-up calls were always prompt.  Anytime I'm in the area, I never consider staying anywhere else.More</t>
   </si>
   <si>
+    <t>William L</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56759-d657715-r123883902-Holiday_Inn_Express_Hotel_Suites_Terrell-Terrell_Texas.html</t>
   </si>
   <si>
@@ -2088,6 +2337,9 @@
     <t>Stopped at this hotel while driving through Texas. The front desk area (and the rest of the hotel,) is clean, the room and decor is outstanding, and the whole apperance is of luxury and comfort...The one negative is that it is not easy to find; after getting off of the highway as it is on a somwhat winding road. However the "GEM" of this place is Virginia (the breakfast Host...)  After putting our luggage in the car when checking out, we went back in for breakfast. That is where we met Virgina who enquired how we were doing, where we were from, and if we enjoyed our stay. However the MOST impressive thing she asked (at least I would think so if I were coporate) was if I was a piority club member! For an associate hosting breakfast, I was impressed that she would ask that question. Throughout our breakfast she checked back to see if everything was alright...And this hotel serves the BEST hotel breakfast that I have EVER tasted! Not only was it COMPLETE. (From cheese omelets, sausage, biscuits &amp; gravy, oatmeal, fruit, juice, cereal, french toast, begals, etc.. etc..) AND GREAT COFFEE. But what should have been hot WAS hot! And the food was delicious... I would have paid for the breakfast... A great hotel, VERY reasonably priced, and a GREAT breakfast host...More</t>
   </si>
   <si>
+    <t>Anthony191156</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56759-d657715-r123817434-Holiday_Inn_Express_Hotel_Suites_Terrell-Terrell_Texas.html</t>
   </si>
   <si>
@@ -2103,6 +2355,9 @@
     <t>This hotel is one of my favorite hotels around. I stay a few times a year when I come to visit my family. The hotel is nice and clean, the rooms are up tp date and clean, the beds are comfortable, they have a nice pool area, the breakfast is good and the young ladies at the desk are always so helpfil and friendly. I highly recommend this hotel</t>
   </si>
   <si>
+    <t>Cheesestick</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56759-d657715-r123250237-Holiday_Inn_Express_Hotel_Suites_Terrell-Terrell_Texas.html</t>
   </si>
   <si>
@@ -2118,6 +2373,9 @@
     <t>We had a late night flight into Dallas and a long drip the next day so we chose to stay just outside of the Big D to miss the morning traffic.  This Holiday Inn Express turned out to be a very nice choice.  Convenient to the Hwy, but not noisy.  Staff was friendly.  Breakfast was good.  We will stay here again.</t>
   </si>
   <si>
+    <t>mandre</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56759-d657715-r122142923-Holiday_Inn_Express_Hotel_Suites_Terrell-Terrell_Texas.html</t>
   </si>
   <si>
@@ -2133,6 +2391,9 @@
     <t>We stayed here last night during a cross country trip.   We called about 10 minutes out and got an even better rate than I was finding on the internet.   Check in was fast, which we appreciated very much.  Our king room was great - clean and comfy.   We had a quiet and restful night, then enjoyed a terrific breakfast the following morning with friendly staff keeping everything nice.   We would certainly stay here again.   It's right next to the Tanger Outlet Mall for those who have time to shop.</t>
   </si>
   <si>
+    <t>Ptourist</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56759-d657715-r115032089-Holiday_Inn_Express_Hotel_Suites_Terrell-Terrell_Texas.html</t>
   </si>
   <si>
@@ -2151,6 +2412,9 @@
     <t>July 2011</t>
   </si>
   <si>
+    <t>EdnaJune</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56759-d657715-r114773590-Holiday_Inn_Express_Hotel_Suites_Terrell-Terrell_Texas.html</t>
   </si>
   <si>
@@ -2169,6 +2433,9 @@
     <t>June 2011</t>
   </si>
   <si>
+    <t>LovethebeachGeorgia</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56759-d657715-r73036466-Holiday_Inn_Express_Hotel_Suites_Terrell-Terrell_Texas.html</t>
   </si>
   <si>
@@ -2187,6 +2454,9 @@
     <t>July 2010</t>
   </si>
   <si>
+    <t>Griffins22</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56759-d657715-r72705507-Holiday_Inn_Express_Hotel_Suites_Terrell-Terrell_Texas.html</t>
   </si>
   <si>
@@ -2203,6 +2473,9 @@
   </si>
   <si>
     <t>If you use GPS you will not find this hotel easily.  We used the physical address and we ended up in an empty field on the other side of Tanger Mall.  Use exit 501 and I believe you will need to go to the South side of I-20.  Once we finally got to the hotel we were impressed with the decor and the newness of the hotel.  Very pretty.  It did take 10 mins before we could get someone at the front desk to check us in.  We booked 3 rooms but we ended up on different floors.  Then we went swimming and the pool was freezing.  On the plus side the rooms were very spacious and nicely decorated.  The breakfast had a good variety and the staff was helpful and friendly.  Now that we know how to get here I would stay here again.More</t>
+  </si>
+  <si>
+    <t>Gilmore2311</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56759-d657715-r72412751-Holiday_Inn_Express_Hotel_Suites_Terrell-Terrell_Texas.html</t>
@@ -2725,43 +2998,47 @@
       <c r="A2" t="n">
         <v>55716</v>
       </c>
-      <c r="B2" t="s"/>
-      <c r="C2" t="s"/>
+      <c r="B2" t="n">
+        <v>156103</v>
+      </c>
+      <c r="C2" t="s">
+        <v>43</v>
+      </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M2" t="n">
         <v>2</v>
       </c>
       <c r="N2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="O2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P2" t="n">
         <v>2</v>
@@ -2777,56 +3054,60 @@
         <v>0</v>
       </c>
       <c r="W2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="X2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Y2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>55716</v>
       </c>
-      <c r="B3" t="s"/>
-      <c r="C3" t="s"/>
+      <c r="B3" t="n">
+        <v>156104</v>
+      </c>
+      <c r="C3" t="s">
+        <v>57</v>
+      </c>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="G3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="J3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="K3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="L3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="M3" t="n">
         <v>4</v>
       </c>
       <c r="N3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="O3" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P3" t="n">
         <v>3</v>
@@ -2846,50 +3127,54 @@
       <c r="W3" t="s"/>
       <c r="X3" t="s"/>
       <c r="Y3" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>55716</v>
       </c>
-      <c r="B4" t="s"/>
-      <c r="C4" t="s"/>
+      <c r="B4" t="n">
+        <v>700</v>
+      </c>
+      <c r="C4" t="s">
+        <v>66</v>
+      </c>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F4" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="G4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I4" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="J4" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="K4" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="L4" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="M4" t="n">
         <v>4</v>
       </c>
       <c r="N4" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="O4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P4" t="s"/>
       <c r="Q4" t="s"/>
@@ -2907,50 +3192,54 @@
       <c r="W4" t="s"/>
       <c r="X4" t="s"/>
       <c r="Y4" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>55716</v>
       </c>
-      <c r="B5" t="s"/>
-      <c r="C5" t="s"/>
+      <c r="B5" t="n">
+        <v>13163</v>
+      </c>
+      <c r="C5" t="s">
+        <v>73</v>
+      </c>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F5" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="G5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I5" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="J5" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="K5" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="L5" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="M5" t="n">
         <v>2</v>
       </c>
       <c r="N5" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="O5" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P5" t="s"/>
       <c r="Q5" t="s"/>
@@ -2962,56 +3251,60 @@
         <v>0</v>
       </c>
       <c r="W5" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="X5" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="Y5" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>55716</v>
       </c>
-      <c r="B6" t="s"/>
-      <c r="C6" t="s"/>
+      <c r="B6" t="n">
+        <v>156105</v>
+      </c>
+      <c r="C6" t="s">
+        <v>83</v>
+      </c>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F6" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="G6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I6" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="J6" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="K6" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="L6" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="M6" t="n">
         <v>5</v>
       </c>
       <c r="N6" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="O6" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="P6" t="s"/>
       <c r="Q6" t="s"/>
@@ -3025,50 +3318,54 @@
       <c r="W6" t="s"/>
       <c r="X6" t="s"/>
       <c r="Y6" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>55716</v>
       </c>
-      <c r="B7" t="s"/>
-      <c r="C7" t="s"/>
+      <c r="B7" t="n">
+        <v>156106</v>
+      </c>
+      <c r="C7" t="s">
+        <v>91</v>
+      </c>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F7" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="G7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I7" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="J7" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="K7" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="L7" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="M7" t="n">
         <v>1</v>
       </c>
       <c r="N7" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="O7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P7" t="s"/>
       <c r="Q7" t="s"/>
@@ -3080,56 +3377,60 @@
         <v>0</v>
       </c>
       <c r="W7" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="X7" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="Y7" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>55716</v>
       </c>
-      <c r="B8" t="s"/>
-      <c r="C8" t="s"/>
+      <c r="B8" t="n">
+        <v>10553</v>
+      </c>
+      <c r="C8" t="s">
+        <v>100</v>
+      </c>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F8" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="G8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I8" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="J8" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="K8" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="L8" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="M8" t="n">
         <v>3</v>
       </c>
       <c r="N8" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="O8" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P8" t="s"/>
       <c r="Q8" t="s"/>
@@ -3145,56 +3446,60 @@
         <v>0</v>
       </c>
       <c r="W8" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="X8" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="Y8" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>55716</v>
       </c>
-      <c r="B9" t="s"/>
-      <c r="C9" t="s"/>
+      <c r="B9" t="n">
+        <v>156107</v>
+      </c>
+      <c r="C9" t="s">
+        <v>110</v>
+      </c>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F9" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="G9" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I9" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="J9" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="K9" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="L9" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="M9" t="n">
         <v>3</v>
       </c>
       <c r="N9" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="O9" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P9" t="s"/>
       <c r="Q9" t="n">
@@ -3212,56 +3517,60 @@
         <v>0</v>
       </c>
       <c r="W9" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="X9" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="Y9" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>55716</v>
       </c>
-      <c r="B10" t="s"/>
-      <c r="C10" t="s"/>
+      <c r="B10" t="n">
+        <v>6764</v>
+      </c>
+      <c r="C10" t="s">
+        <v>119</v>
+      </c>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F10" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="G10" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I10" t="s">
-        <v>112</v>
+        <v>121</v>
       </c>
       <c r="J10" t="s">
-        <v>113</v>
+        <v>122</v>
       </c>
       <c r="K10" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="L10" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="M10" t="n">
         <v>5</v>
       </c>
       <c r="N10" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="O10" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P10" t="s"/>
       <c r="Q10" t="s"/>
@@ -3273,56 +3582,60 @@
         <v>0</v>
       </c>
       <c r="W10" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="X10" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
       <c r="Y10" t="s">
-        <v>118</v>
+        <v>127</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>55716</v>
       </c>
-      <c r="B11" t="s"/>
-      <c r="C11" t="s"/>
+      <c r="B11" t="n">
+        <v>13826</v>
+      </c>
+      <c r="C11" t="s">
+        <v>128</v>
+      </c>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F11" t="s">
-        <v>119</v>
+        <v>129</v>
       </c>
       <c r="G11" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I11" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="J11" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="K11" t="s">
-        <v>122</v>
+        <v>132</v>
       </c>
       <c r="L11" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="M11" t="n">
         <v>5</v>
       </c>
       <c r="N11" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="O11" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P11" t="s"/>
       <c r="Q11" t="s"/>
@@ -3338,56 +3651,60 @@
         <v>0</v>
       </c>
       <c r="W11" t="s">
-        <v>125</v>
+        <v>135</v>
       </c>
       <c r="X11" t="s">
-        <v>126</v>
+        <v>136</v>
       </c>
       <c r="Y11" t="s">
-        <v>127</v>
+        <v>137</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>55716</v>
       </c>
-      <c r="B12" t="s"/>
-      <c r="C12" t="s"/>
+      <c r="B12" t="n">
+        <v>156108</v>
+      </c>
+      <c r="C12" t="s">
+        <v>138</v>
+      </c>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F12" t="s">
-        <v>128</v>
+        <v>139</v>
       </c>
       <c r="G12" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I12" t="s">
-        <v>129</v>
+        <v>140</v>
       </c>
       <c r="J12" t="s">
-        <v>130</v>
+        <v>141</v>
       </c>
       <c r="K12" t="s">
-        <v>131</v>
+        <v>142</v>
       </c>
       <c r="L12" t="s">
-        <v>132</v>
+        <v>143</v>
       </c>
       <c r="M12" t="n">
         <v>4</v>
       </c>
       <c r="N12" t="s">
-        <v>133</v>
+        <v>144</v>
       </c>
       <c r="O12" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P12" t="s"/>
       <c r="Q12" t="s"/>
@@ -3399,47 +3716,51 @@
         <v>0</v>
       </c>
       <c r="W12" t="s">
-        <v>134</v>
+        <v>145</v>
       </c>
       <c r="X12" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="Y12" t="s">
-        <v>136</v>
+        <v>147</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>55716</v>
       </c>
-      <c r="B13" t="s"/>
-      <c r="C13" t="s"/>
+      <c r="B13" t="n">
+        <v>156109</v>
+      </c>
+      <c r="C13" t="s">
+        <v>148</v>
+      </c>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F13" t="s">
-        <v>137</v>
+        <v>149</v>
       </c>
       <c r="G13" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I13" t="s">
-        <v>138</v>
+        <v>150</v>
       </c>
       <c r="J13" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
       <c r="K13" t="s">
-        <v>140</v>
+        <v>152</v>
       </c>
       <c r="L13" t="s">
-        <v>141</v>
+        <v>153</v>
       </c>
       <c r="M13" t="n">
         <v>4</v>
@@ -3456,56 +3777,60 @@
         <v>0</v>
       </c>
       <c r="W13" t="s">
-        <v>142</v>
+        <v>154</v>
       </c>
       <c r="X13" t="s">
-        <v>143</v>
+        <v>155</v>
       </c>
       <c r="Y13" t="s">
-        <v>144</v>
+        <v>156</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>55716</v>
       </c>
-      <c r="B14" t="s"/>
-      <c r="C14" t="s"/>
+      <c r="B14" t="n">
+        <v>156110</v>
+      </c>
+      <c r="C14" t="s">
+        <v>157</v>
+      </c>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F14" t="s">
-        <v>145</v>
+        <v>158</v>
       </c>
       <c r="G14" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I14" t="s">
-        <v>146</v>
+        <v>159</v>
       </c>
       <c r="J14" t="s">
-        <v>147</v>
+        <v>160</v>
       </c>
       <c r="K14" t="s">
-        <v>148</v>
+        <v>161</v>
       </c>
       <c r="L14" t="s">
-        <v>149</v>
+        <v>162</v>
       </c>
       <c r="M14" t="n">
         <v>2</v>
       </c>
       <c r="N14" t="s">
-        <v>150</v>
+        <v>163</v>
       </c>
       <c r="O14" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P14" t="s"/>
       <c r="Q14" t="s"/>
@@ -3517,56 +3842,60 @@
         <v>0</v>
       </c>
       <c r="W14" t="s">
-        <v>142</v>
+        <v>154</v>
       </c>
       <c r="X14" t="s">
-        <v>143</v>
+        <v>155</v>
       </c>
       <c r="Y14" t="s">
-        <v>151</v>
+        <v>164</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>55716</v>
       </c>
-      <c r="B15" t="s"/>
-      <c r="C15" t="s"/>
+      <c r="B15" t="n">
+        <v>156111</v>
+      </c>
+      <c r="C15" t="s">
+        <v>165</v>
+      </c>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F15" t="s">
-        <v>152</v>
+        <v>166</v>
       </c>
       <c r="G15" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I15" t="s">
-        <v>153</v>
+        <v>167</v>
       </c>
       <c r="J15" t="s">
-        <v>154</v>
+        <v>168</v>
       </c>
       <c r="K15" t="s">
-        <v>155</v>
+        <v>169</v>
       </c>
       <c r="L15" t="s">
-        <v>156</v>
+        <v>170</v>
       </c>
       <c r="M15" t="n">
         <v>5</v>
       </c>
       <c r="N15" t="s">
-        <v>157</v>
+        <v>171</v>
       </c>
       <c r="O15" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P15" t="s"/>
       <c r="Q15" t="s"/>
@@ -3578,56 +3907,60 @@
         <v>0</v>
       </c>
       <c r="W15" t="s">
-        <v>158</v>
+        <v>172</v>
       </c>
       <c r="X15" t="s">
-        <v>159</v>
+        <v>173</v>
       </c>
       <c r="Y15" t="s">
-        <v>160</v>
+        <v>174</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>55716</v>
       </c>
-      <c r="B16" t="s"/>
-      <c r="C16" t="s"/>
+      <c r="B16" t="n">
+        <v>156112</v>
+      </c>
+      <c r="C16" t="s">
+        <v>175</v>
+      </c>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F16" t="s">
-        <v>161</v>
+        <v>176</v>
       </c>
       <c r="G16" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I16" t="s">
-        <v>162</v>
+        <v>177</v>
       </c>
       <c r="J16" t="s">
-        <v>163</v>
+        <v>178</v>
       </c>
       <c r="K16" t="s">
-        <v>164</v>
+        <v>179</v>
       </c>
       <c r="L16" t="s">
-        <v>165</v>
+        <v>180</v>
       </c>
       <c r="M16" t="n">
         <v>5</v>
       </c>
       <c r="N16" t="s">
-        <v>157</v>
+        <v>171</v>
       </c>
       <c r="O16" t="s">
-        <v>166</v>
+        <v>181</v>
       </c>
       <c r="P16" t="s"/>
       <c r="Q16" t="s"/>
@@ -3639,56 +3972,60 @@
         <v>0</v>
       </c>
       <c r="W16" t="s">
-        <v>167</v>
+        <v>182</v>
       </c>
       <c r="X16" t="s">
-        <v>168</v>
+        <v>183</v>
       </c>
       <c r="Y16" t="s">
-        <v>169</v>
+        <v>184</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>55716</v>
       </c>
-      <c r="B17" t="s"/>
-      <c r="C17" t="s"/>
+      <c r="B17" t="n">
+        <v>156113</v>
+      </c>
+      <c r="C17" t="s">
+        <v>185</v>
+      </c>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F17" t="s">
-        <v>170</v>
+        <v>186</v>
       </c>
       <c r="G17" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I17" t="s">
-        <v>171</v>
+        <v>187</v>
       </c>
       <c r="J17" t="s">
-        <v>172</v>
+        <v>188</v>
       </c>
       <c r="K17" t="s">
-        <v>173</v>
+        <v>189</v>
       </c>
       <c r="L17" t="s">
-        <v>174</v>
+        <v>190</v>
       </c>
       <c r="M17" t="n">
         <v>4</v>
       </c>
       <c r="N17" t="s">
-        <v>175</v>
+        <v>191</v>
       </c>
       <c r="O17" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P17" t="s"/>
       <c r="Q17" t="s"/>
@@ -3706,56 +4043,60 @@
         <v>0</v>
       </c>
       <c r="W17" t="s">
-        <v>176</v>
+        <v>192</v>
       </c>
       <c r="X17" t="s">
-        <v>177</v>
+        <v>193</v>
       </c>
       <c r="Y17" t="s">
-        <v>178</v>
+        <v>194</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>55716</v>
       </c>
-      <c r="B18" t="s"/>
-      <c r="C18" t="s"/>
+      <c r="B18" t="n">
+        <v>778</v>
+      </c>
+      <c r="C18" t="s">
+        <v>195</v>
+      </c>
       <c r="D18" t="n">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F18" t="s">
-        <v>179</v>
+        <v>196</v>
       </c>
       <c r="G18" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I18" t="s">
-        <v>180</v>
+        <v>197</v>
       </c>
       <c r="J18" t="s">
-        <v>181</v>
+        <v>198</v>
       </c>
       <c r="K18" t="s">
-        <v>182</v>
+        <v>199</v>
       </c>
       <c r="L18" t="s">
-        <v>183</v>
+        <v>200</v>
       </c>
       <c r="M18" t="n">
         <v>4</v>
       </c>
       <c r="N18" t="s">
-        <v>184</v>
+        <v>201</v>
       </c>
       <c r="O18" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P18" t="s"/>
       <c r="Q18" t="s"/>
@@ -3767,56 +4108,60 @@
         <v>0</v>
       </c>
       <c r="W18" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="X18" t="s">
-        <v>186</v>
+        <v>203</v>
       </c>
       <c r="Y18" t="s">
-        <v>187</v>
+        <v>204</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>55716</v>
       </c>
-      <c r="B19" t="s"/>
-      <c r="C19" t="s"/>
+      <c r="B19" t="n">
+        <v>156114</v>
+      </c>
+      <c r="C19" t="s">
+        <v>205</v>
+      </c>
       <c r="D19" t="n">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F19" t="s">
-        <v>188</v>
+        <v>206</v>
       </c>
       <c r="G19" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I19" t="s">
-        <v>189</v>
+        <v>207</v>
       </c>
       <c r="J19" t="s">
-        <v>190</v>
+        <v>208</v>
       </c>
       <c r="K19" t="s">
-        <v>191</v>
+        <v>209</v>
       </c>
       <c r="L19" t="s">
-        <v>192</v>
+        <v>210</v>
       </c>
       <c r="M19" t="n">
         <v>4</v>
       </c>
       <c r="N19" t="s">
-        <v>193</v>
+        <v>211</v>
       </c>
       <c r="O19" t="s">
-        <v>166</v>
+        <v>181</v>
       </c>
       <c r="P19" t="s"/>
       <c r="Q19" t="s"/>
@@ -3832,56 +4177,60 @@
         <v>0</v>
       </c>
       <c r="W19" t="s">
-        <v>194</v>
+        <v>212</v>
       </c>
       <c r="X19" t="s">
-        <v>195</v>
+        <v>213</v>
       </c>
       <c r="Y19" t="s">
-        <v>196</v>
+        <v>214</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>55716</v>
       </c>
-      <c r="B20" t="s"/>
-      <c r="C20" t="s"/>
+      <c r="B20" t="n">
+        <v>9831</v>
+      </c>
+      <c r="C20" t="s">
+        <v>215</v>
+      </c>
       <c r="D20" t="n">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F20" t="s">
-        <v>197</v>
+        <v>216</v>
       </c>
       <c r="G20" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I20" t="s">
-        <v>198</v>
+        <v>217</v>
       </c>
       <c r="J20" t="s">
-        <v>199</v>
+        <v>218</v>
       </c>
       <c r="K20" t="s">
-        <v>200</v>
+        <v>219</v>
       </c>
       <c r="L20" t="s">
+        <v>220</v>
+      </c>
+      <c r="M20" t="n">
+        <v>5</v>
+      </c>
+      <c r="N20" t="s">
         <v>201</v>
       </c>
-      <c r="M20" t="n">
-        <v>5</v>
-      </c>
-      <c r="N20" t="s">
-        <v>184</v>
-      </c>
       <c r="O20" t="s">
-        <v>202</v>
+        <v>221</v>
       </c>
       <c r="P20" t="s"/>
       <c r="Q20" t="s"/>
@@ -3897,56 +4246,60 @@
         <v>0</v>
       </c>
       <c r="W20" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="X20" t="s">
-        <v>186</v>
+        <v>203</v>
       </c>
       <c r="Y20" t="s">
-        <v>203</v>
+        <v>222</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>55716</v>
       </c>
-      <c r="B21" t="s"/>
-      <c r="C21" t="s"/>
+      <c r="B21" t="n">
+        <v>155737</v>
+      </c>
+      <c r="C21" t="s">
+        <v>223</v>
+      </c>
       <c r="D21" t="n">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F21" t="s">
-        <v>204</v>
+        <v>224</v>
       </c>
       <c r="G21" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H21" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I21" t="s">
-        <v>205</v>
+        <v>225</v>
       </c>
       <c r="J21" t="s">
-        <v>206</v>
+        <v>226</v>
       </c>
       <c r="K21" t="s">
-        <v>207</v>
+        <v>227</v>
       </c>
       <c r="L21" t="s">
-        <v>208</v>
+        <v>228</v>
       </c>
       <c r="M21" t="n">
         <v>3</v>
       </c>
       <c r="N21" t="s">
-        <v>184</v>
+        <v>201</v>
       </c>
       <c r="O21" t="s">
-        <v>166</v>
+        <v>181</v>
       </c>
       <c r="P21" t="s"/>
       <c r="Q21" t="s"/>
@@ -3962,56 +4315,60 @@
         <v>0</v>
       </c>
       <c r="W21" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="X21" t="s">
-        <v>186</v>
+        <v>203</v>
       </c>
       <c r="Y21" t="s">
-        <v>209</v>
+        <v>229</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>55716</v>
       </c>
-      <c r="B22" t="s"/>
-      <c r="C22" t="s"/>
+      <c r="B22" t="n">
+        <v>50873</v>
+      </c>
+      <c r="C22" t="s">
+        <v>230</v>
+      </c>
       <c r="D22" t="n">
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F22" t="s">
-        <v>210</v>
+        <v>231</v>
       </c>
       <c r="G22" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I22" t="s">
-        <v>211</v>
+        <v>232</v>
       </c>
       <c r="J22" t="s">
-        <v>212</v>
+        <v>233</v>
       </c>
       <c r="K22" t="s">
-        <v>213</v>
+        <v>234</v>
       </c>
       <c r="L22" t="s">
-        <v>214</v>
+        <v>235</v>
       </c>
       <c r="M22" t="n">
         <v>5</v>
       </c>
       <c r="N22" t="s">
-        <v>215</v>
+        <v>236</v>
       </c>
       <c r="O22" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P22" t="s"/>
       <c r="Q22" t="s"/>
@@ -4023,56 +4380,60 @@
         <v>0</v>
       </c>
       <c r="W22" t="s">
-        <v>216</v>
+        <v>237</v>
       </c>
       <c r="X22" t="s">
-        <v>217</v>
+        <v>238</v>
       </c>
       <c r="Y22" t="s">
-        <v>218</v>
+        <v>239</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>55716</v>
       </c>
-      <c r="B23" t="s"/>
-      <c r="C23" t="s"/>
+      <c r="B23" t="n">
+        <v>94922</v>
+      </c>
+      <c r="C23" t="s">
+        <v>240</v>
+      </c>
       <c r="D23" t="n">
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F23" t="s">
-        <v>219</v>
+        <v>241</v>
       </c>
       <c r="G23" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H23" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I23" t="s">
-        <v>220</v>
+        <v>242</v>
       </c>
       <c r="J23" t="s">
-        <v>221</v>
+        <v>243</v>
       </c>
       <c r="K23" t="s">
-        <v>222</v>
+        <v>244</v>
       </c>
       <c r="L23" t="s">
-        <v>223</v>
+        <v>245</v>
       </c>
       <c r="M23" t="n">
         <v>4</v>
       </c>
       <c r="N23" t="s">
-        <v>224</v>
+        <v>246</v>
       </c>
       <c r="O23" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P23" t="n">
         <v>4</v>
@@ -4090,56 +4451,60 @@
         <v>0</v>
       </c>
       <c r="W23" t="s">
-        <v>225</v>
+        <v>247</v>
       </c>
       <c r="X23" t="s">
-        <v>226</v>
+        <v>248</v>
       </c>
       <c r="Y23" t="s">
-        <v>227</v>
+        <v>249</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>55716</v>
       </c>
-      <c r="B24" t="s"/>
-      <c r="C24" t="s"/>
+      <c r="B24" t="n">
+        <v>77050</v>
+      </c>
+      <c r="C24" t="s">
+        <v>250</v>
+      </c>
       <c r="D24" t="n">
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F24" t="s">
-        <v>228</v>
+        <v>251</v>
       </c>
       <c r="G24" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H24" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I24" t="s">
-        <v>229</v>
+        <v>252</v>
       </c>
       <c r="J24" t="s">
-        <v>230</v>
+        <v>253</v>
       </c>
       <c r="K24" t="s">
-        <v>231</v>
+        <v>254</v>
       </c>
       <c r="L24" t="s">
-        <v>232</v>
+        <v>255</v>
       </c>
       <c r="M24" t="n">
         <v>5</v>
       </c>
       <c r="N24" t="s">
-        <v>233</v>
+        <v>256</v>
       </c>
       <c r="O24" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P24" t="n">
         <v>5</v>
@@ -4157,56 +4522,60 @@
         <v>0</v>
       </c>
       <c r="W24" t="s">
-        <v>234</v>
+        <v>257</v>
       </c>
       <c r="X24" t="s">
-        <v>235</v>
+        <v>258</v>
       </c>
       <c r="Y24" t="s">
-        <v>236</v>
+        <v>259</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
         <v>55716</v>
       </c>
-      <c r="B25" t="s"/>
-      <c r="C25" t="s"/>
+      <c r="B25" t="n">
+        <v>156115</v>
+      </c>
+      <c r="C25" t="s">
+        <v>260</v>
+      </c>
       <c r="D25" t="n">
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F25" t="s">
-        <v>237</v>
+        <v>261</v>
       </c>
       <c r="G25" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H25" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I25" t="s">
-        <v>238</v>
+        <v>262</v>
       </c>
       <c r="J25" t="s">
-        <v>239</v>
+        <v>263</v>
       </c>
       <c r="K25" t="s">
-        <v>240</v>
+        <v>264</v>
       </c>
       <c r="L25" t="s">
-        <v>241</v>
+        <v>265</v>
       </c>
       <c r="M25" t="n">
         <v>3</v>
       </c>
       <c r="N25" t="s">
-        <v>242</v>
+        <v>266</v>
       </c>
       <c r="O25" t="s">
-        <v>166</v>
+        <v>181</v>
       </c>
       <c r="P25" t="s"/>
       <c r="Q25" t="n">
@@ -4224,56 +4593,60 @@
         <v>0</v>
       </c>
       <c r="W25" t="s">
-        <v>243</v>
+        <v>267</v>
       </c>
       <c r="X25" t="s">
-        <v>244</v>
+        <v>268</v>
       </c>
       <c r="Y25" t="s">
-        <v>245</v>
+        <v>269</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
         <v>55716</v>
       </c>
-      <c r="B26" t="s"/>
-      <c r="C26" t="s"/>
+      <c r="B26" t="n">
+        <v>24241</v>
+      </c>
+      <c r="C26" t="s">
+        <v>270</v>
+      </c>
       <c r="D26" t="n">
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F26" t="s">
-        <v>246</v>
+        <v>271</v>
       </c>
       <c r="G26" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H26" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I26" t="s">
-        <v>247</v>
+        <v>272</v>
       </c>
       <c r="J26" t="s">
-        <v>248</v>
+        <v>273</v>
       </c>
       <c r="K26" t="s">
-        <v>249</v>
+        <v>274</v>
       </c>
       <c r="L26" t="s">
-        <v>250</v>
+        <v>275</v>
       </c>
       <c r="M26" t="n">
         <v>3</v>
       </c>
       <c r="N26" t="s">
-        <v>251</v>
+        <v>276</v>
       </c>
       <c r="O26" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P26" t="s"/>
       <c r="Q26" t="s"/>
@@ -4285,56 +4658,60 @@
         <v>0</v>
       </c>
       <c r="W26" t="s">
-        <v>252</v>
+        <v>277</v>
       </c>
       <c r="X26" t="s">
-        <v>253</v>
+        <v>278</v>
       </c>
       <c r="Y26" t="s">
-        <v>254</v>
+        <v>279</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
         <v>55716</v>
       </c>
-      <c r="B27" t="s"/>
-      <c r="C27" t="s"/>
+      <c r="B27" t="n">
+        <v>156116</v>
+      </c>
+      <c r="C27" t="s">
+        <v>280</v>
+      </c>
       <c r="D27" t="n">
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F27" t="s">
-        <v>255</v>
+        <v>281</v>
       </c>
       <c r="G27" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H27" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I27" t="s">
-        <v>256</v>
+        <v>282</v>
       </c>
       <c r="J27" t="s">
-        <v>257</v>
+        <v>283</v>
       </c>
       <c r="K27" t="s">
-        <v>258</v>
+        <v>284</v>
       </c>
       <c r="L27" t="s">
-        <v>259</v>
+        <v>285</v>
       </c>
       <c r="M27" t="n">
         <v>5</v>
       </c>
       <c r="N27" t="s">
-        <v>251</v>
+        <v>276</v>
       </c>
       <c r="O27" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P27" t="s"/>
       <c r="Q27" t="s"/>
@@ -4352,56 +4729,60 @@
         <v>0</v>
       </c>
       <c r="W27" t="s">
-        <v>234</v>
+        <v>257</v>
       </c>
       <c r="X27" t="s">
-        <v>235</v>
+        <v>258</v>
       </c>
       <c r="Y27" t="s">
-        <v>260</v>
+        <v>286</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
         <v>55716</v>
       </c>
-      <c r="B28" t="s"/>
-      <c r="C28" t="s"/>
+      <c r="B28" t="n">
+        <v>156117</v>
+      </c>
+      <c r="C28" t="s">
+        <v>287</v>
+      </c>
       <c r="D28" t="n">
         <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F28" t="s">
-        <v>261</v>
+        <v>288</v>
       </c>
       <c r="G28" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H28" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I28" t="s">
-        <v>262</v>
+        <v>289</v>
       </c>
       <c r="J28" t="s">
-        <v>263</v>
+        <v>290</v>
       </c>
       <c r="K28" t="s">
-        <v>264</v>
+        <v>291</v>
       </c>
       <c r="L28" t="s">
-        <v>265</v>
+        <v>292</v>
       </c>
       <c r="M28" t="n">
         <v>5</v>
       </c>
       <c r="N28" t="s">
-        <v>266</v>
+        <v>293</v>
       </c>
       <c r="O28" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P28" t="s"/>
       <c r="Q28" t="n">
@@ -4419,56 +4800,60 @@
         <v>0</v>
       </c>
       <c r="W28" t="s">
-        <v>267</v>
+        <v>294</v>
       </c>
       <c r="X28" t="s">
-        <v>268</v>
+        <v>295</v>
       </c>
       <c r="Y28" t="s">
-        <v>269</v>
+        <v>296</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
         <v>55716</v>
       </c>
-      <c r="B29" t="s"/>
-      <c r="C29" t="s"/>
+      <c r="B29" t="n">
+        <v>10096</v>
+      </c>
+      <c r="C29" t="s">
+        <v>297</v>
+      </c>
       <c r="D29" t="n">
         <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F29" t="s">
-        <v>270</v>
+        <v>298</v>
       </c>
       <c r="G29" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H29" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I29" t="s">
-        <v>271</v>
+        <v>299</v>
       </c>
       <c r="J29" t="s">
-        <v>263</v>
+        <v>290</v>
       </c>
       <c r="K29" t="s">
-        <v>272</v>
+        <v>300</v>
       </c>
       <c r="L29" t="s">
-        <v>273</v>
+        <v>301</v>
       </c>
       <c r="M29" t="n">
         <v>3</v>
       </c>
       <c r="N29" t="s">
-        <v>266</v>
+        <v>293</v>
       </c>
       <c r="O29" t="s">
-        <v>166</v>
+        <v>181</v>
       </c>
       <c r="P29" t="n">
         <v>3</v>
@@ -4484,13 +4869,13 @@
         <v>0</v>
       </c>
       <c r="W29" t="s">
-        <v>267</v>
+        <v>294</v>
       </c>
       <c r="X29" t="s">
-        <v>268</v>
+        <v>295</v>
       </c>
       <c r="Y29" t="s">
-        <v>274</v>
+        <v>302</v>
       </c>
     </row>
     <row r="30">
@@ -4503,37 +4888,37 @@
         <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F30" t="s">
-        <v>275</v>
+        <v>303</v>
       </c>
       <c r="G30" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H30" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I30" t="s">
-        <v>276</v>
+        <v>304</v>
       </c>
       <c r="J30" t="s">
-        <v>277</v>
+        <v>305</v>
       </c>
       <c r="K30" t="s">
-        <v>278</v>
+        <v>306</v>
       </c>
       <c r="L30" t="s">
-        <v>279</v>
+        <v>307</v>
       </c>
       <c r="M30" t="n">
         <v>4</v>
       </c>
       <c r="N30" t="s">
-        <v>266</v>
+        <v>293</v>
       </c>
       <c r="O30" t="s">
-        <v>166</v>
+        <v>181</v>
       </c>
       <c r="P30" t="n">
         <v>3</v>
@@ -4551,56 +4936,60 @@
         <v>0</v>
       </c>
       <c r="W30" t="s">
-        <v>267</v>
+        <v>294</v>
       </c>
       <c r="X30" t="s">
-        <v>268</v>
+        <v>295</v>
       </c>
       <c r="Y30" t="s">
-        <v>280</v>
+        <v>308</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
         <v>55716</v>
       </c>
-      <c r="B31" t="s"/>
-      <c r="C31" t="s"/>
+      <c r="B31" t="n">
+        <v>156118</v>
+      </c>
+      <c r="C31" t="s">
+        <v>309</v>
+      </c>
       <c r="D31" t="n">
         <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F31" t="s">
-        <v>281</v>
+        <v>310</v>
       </c>
       <c r="G31" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H31" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I31" t="s">
-        <v>282</v>
+        <v>311</v>
       </c>
       <c r="J31" t="s">
-        <v>283</v>
+        <v>312</v>
       </c>
       <c r="K31" t="s">
-        <v>284</v>
+        <v>313</v>
       </c>
       <c r="L31" t="s">
-        <v>285</v>
+        <v>314</v>
       </c>
       <c r="M31" t="n">
         <v>5</v>
       </c>
       <c r="N31" t="s">
-        <v>286</v>
+        <v>315</v>
       </c>
       <c r="O31" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P31" t="n">
         <v>5</v>
@@ -4618,56 +5007,60 @@
         <v>0</v>
       </c>
       <c r="W31" t="s">
-        <v>287</v>
+        <v>316</v>
       </c>
       <c r="X31" t="s">
-        <v>288</v>
+        <v>317</v>
       </c>
       <c r="Y31" t="s">
-        <v>289</v>
+        <v>318</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
         <v>55716</v>
       </c>
-      <c r="B32" t="s"/>
-      <c r="C32" t="s"/>
+      <c r="B32" t="n">
+        <v>156119</v>
+      </c>
+      <c r="C32" t="s">
+        <v>319</v>
+      </c>
       <c r="D32" t="n">
         <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F32" t="s">
-        <v>290</v>
+        <v>320</v>
       </c>
       <c r="G32" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H32" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I32" t="s">
-        <v>291</v>
+        <v>321</v>
       </c>
       <c r="J32" t="s">
-        <v>292</v>
+        <v>322</v>
       </c>
       <c r="K32" t="s">
-        <v>293</v>
+        <v>323</v>
       </c>
       <c r="L32" t="s">
-        <v>294</v>
+        <v>324</v>
       </c>
       <c r="M32" t="n">
         <v>4</v>
       </c>
       <c r="N32" t="s">
-        <v>295</v>
+        <v>325</v>
       </c>
       <c r="O32" t="s">
-        <v>166</v>
+        <v>181</v>
       </c>
       <c r="P32" t="n">
         <v>3</v>
@@ -4685,56 +5078,60 @@
         <v>0</v>
       </c>
       <c r="W32" t="s">
-        <v>296</v>
+        <v>326</v>
       </c>
       <c r="X32" t="s">
-        <v>297</v>
+        <v>327</v>
       </c>
       <c r="Y32" t="s">
-        <v>298</v>
+        <v>328</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
         <v>55716</v>
       </c>
-      <c r="B33" t="s"/>
-      <c r="C33" t="s"/>
+      <c r="B33" t="n">
+        <v>23962</v>
+      </c>
+      <c r="C33" t="s">
+        <v>329</v>
+      </c>
       <c r="D33" t="n">
         <v>32</v>
       </c>
       <c r="E33" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F33" t="s">
-        <v>299</v>
+        <v>330</v>
       </c>
       <c r="G33" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H33" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I33" t="s">
-        <v>300</v>
+        <v>331</v>
       </c>
       <c r="J33" t="s">
-        <v>301</v>
+        <v>332</v>
       </c>
       <c r="K33" t="s">
-        <v>302</v>
+        <v>333</v>
       </c>
       <c r="L33" t="s">
-        <v>303</v>
+        <v>334</v>
       </c>
       <c r="M33" t="n">
         <v>5</v>
       </c>
       <c r="N33" t="s">
-        <v>295</v>
+        <v>325</v>
       </c>
       <c r="O33" t="s">
-        <v>166</v>
+        <v>181</v>
       </c>
       <c r="P33" t="s"/>
       <c r="Q33" t="s"/>
@@ -4746,13 +5143,13 @@
         <v>0</v>
       </c>
       <c r="W33" t="s">
-        <v>296</v>
+        <v>326</v>
       </c>
       <c r="X33" t="s">
-        <v>297</v>
+        <v>327</v>
       </c>
       <c r="Y33" t="s">
-        <v>304</v>
+        <v>335</v>
       </c>
     </row>
     <row r="34">
@@ -4765,37 +5162,37 @@
         <v>33</v>
       </c>
       <c r="E34" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F34" t="s">
-        <v>305</v>
+        <v>336</v>
       </c>
       <c r="G34" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H34" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I34" t="s">
-        <v>306</v>
+        <v>337</v>
       </c>
       <c r="J34" t="s">
-        <v>307</v>
+        <v>338</v>
       </c>
       <c r="K34" t="s">
-        <v>308</v>
+        <v>339</v>
       </c>
       <c r="L34" t="s">
-        <v>309</v>
+        <v>340</v>
       </c>
       <c r="M34" t="n">
         <v>5</v>
       </c>
       <c r="N34" t="s">
-        <v>310</v>
+        <v>341</v>
       </c>
       <c r="O34" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P34" t="s"/>
       <c r="Q34" t="s"/>
@@ -4807,56 +5204,60 @@
         <v>0</v>
       </c>
       <c r="W34" t="s">
-        <v>296</v>
+        <v>326</v>
       </c>
       <c r="X34" t="s">
-        <v>297</v>
+        <v>327</v>
       </c>
       <c r="Y34" t="s">
-        <v>311</v>
+        <v>342</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
         <v>55716</v>
       </c>
-      <c r="B35" t="s"/>
-      <c r="C35" t="s"/>
+      <c r="B35" t="n">
+        <v>156120</v>
+      </c>
+      <c r="C35" t="s">
+        <v>343</v>
+      </c>
       <c r="D35" t="n">
         <v>34</v>
       </c>
       <c r="E35" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F35" t="s">
-        <v>312</v>
+        <v>344</v>
       </c>
       <c r="G35" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H35" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I35" t="s">
-        <v>313</v>
+        <v>345</v>
       </c>
       <c r="J35" t="s">
-        <v>314</v>
+        <v>346</v>
       </c>
       <c r="K35" t="s">
-        <v>315</v>
+        <v>347</v>
       </c>
       <c r="L35" t="s">
-        <v>316</v>
+        <v>348</v>
       </c>
       <c r="M35" t="n">
         <v>2</v>
       </c>
       <c r="N35" t="s">
-        <v>310</v>
+        <v>341</v>
       </c>
       <c r="O35" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="P35" t="n">
         <v>3</v>
@@ -4872,56 +5273,60 @@
         <v>0</v>
       </c>
       <c r="W35" t="s">
-        <v>317</v>
+        <v>349</v>
       </c>
       <c r="X35" t="s">
-        <v>318</v>
+        <v>350</v>
       </c>
       <c r="Y35" t="s">
-        <v>319</v>
+        <v>351</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
         <v>55716</v>
       </c>
-      <c r="B36" t="s"/>
-      <c r="C36" t="s"/>
+      <c r="B36" t="n">
+        <v>36332</v>
+      </c>
+      <c r="C36" t="s">
+        <v>352</v>
+      </c>
       <c r="D36" t="n">
         <v>35</v>
       </c>
       <c r="E36" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F36" t="s">
-        <v>320</v>
+        <v>353</v>
       </c>
       <c r="G36" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H36" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I36" t="s">
-        <v>321</v>
+        <v>354</v>
       </c>
       <c r="J36" t="s">
-        <v>322</v>
+        <v>355</v>
       </c>
       <c r="K36" t="s">
-        <v>323</v>
+        <v>356</v>
       </c>
       <c r="L36" t="s">
-        <v>324</v>
+        <v>357</v>
       </c>
       <c r="M36" t="n">
         <v>5</v>
       </c>
       <c r="N36" t="s">
-        <v>325</v>
+        <v>358</v>
       </c>
       <c r="O36" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P36" t="n">
         <v>5</v>
@@ -4939,56 +5344,60 @@
         <v>0</v>
       </c>
       <c r="W36" t="s">
-        <v>326</v>
+        <v>359</v>
       </c>
       <c r="X36" t="s">
-        <v>327</v>
+        <v>360</v>
       </c>
       <c r="Y36" t="s">
-        <v>328</v>
+        <v>361</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
         <v>55716</v>
       </c>
-      <c r="B37" t="s"/>
-      <c r="C37" t="s"/>
+      <c r="B37" t="n">
+        <v>156121</v>
+      </c>
+      <c r="C37" t="s">
+        <v>362</v>
+      </c>
       <c r="D37" t="n">
         <v>36</v>
       </c>
       <c r="E37" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F37" t="s">
-        <v>329</v>
+        <v>363</v>
       </c>
       <c r="G37" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H37" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I37" t="s">
-        <v>330</v>
+        <v>364</v>
       </c>
       <c r="J37" t="s">
-        <v>331</v>
+        <v>365</v>
       </c>
       <c r="K37" t="s">
-        <v>332</v>
+        <v>366</v>
       </c>
       <c r="L37" t="s">
-        <v>333</v>
+        <v>367</v>
       </c>
       <c r="M37" t="n">
         <v>5</v>
       </c>
       <c r="N37" t="s">
-        <v>325</v>
+        <v>358</v>
       </c>
       <c r="O37" t="s">
-        <v>202</v>
+        <v>221</v>
       </c>
       <c r="P37" t="n">
         <v>5</v>
@@ -5006,47 +5415,51 @@
         <v>0</v>
       </c>
       <c r="W37" t="s">
-        <v>334</v>
+        <v>368</v>
       </c>
       <c r="X37" t="s">
-        <v>335</v>
+        <v>369</v>
       </c>
       <c r="Y37" t="s">
-        <v>336</v>
+        <v>370</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
         <v>55716</v>
       </c>
-      <c r="B38" t="s"/>
-      <c r="C38" t="s"/>
+      <c r="B38" t="n">
+        <v>156122</v>
+      </c>
+      <c r="C38" t="s">
+        <v>371</v>
+      </c>
       <c r="D38" t="n">
         <v>37</v>
       </c>
       <c r="E38" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F38" t="s">
-        <v>337</v>
+        <v>372</v>
       </c>
       <c r="G38" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H38" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I38" t="s">
-        <v>338</v>
+        <v>373</v>
       </c>
       <c r="J38" t="s">
-        <v>339</v>
+        <v>374</v>
       </c>
       <c r="K38" t="s">
-        <v>340</v>
+        <v>375</v>
       </c>
       <c r="L38" t="s">
-        <v>341</v>
+        <v>376</v>
       </c>
       <c r="M38" t="n">
         <v>5</v>
@@ -5063,56 +5476,60 @@
         <v>0</v>
       </c>
       <c r="W38" t="s">
-        <v>342</v>
+        <v>377</v>
       </c>
       <c r="X38" t="s">
-        <v>343</v>
+        <v>378</v>
       </c>
       <c r="Y38" t="s">
-        <v>344</v>
+        <v>379</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
         <v>55716</v>
       </c>
-      <c r="B39" t="s"/>
-      <c r="C39" t="s"/>
+      <c r="B39" t="n">
+        <v>156123</v>
+      </c>
+      <c r="C39" t="s">
+        <v>380</v>
+      </c>
       <c r="D39" t="n">
         <v>38</v>
       </c>
       <c r="E39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F39" t="s">
-        <v>345</v>
+        <v>381</v>
       </c>
       <c r="G39" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H39" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I39" t="s">
-        <v>346</v>
+        <v>382</v>
       </c>
       <c r="J39" t="s">
-        <v>347</v>
+        <v>383</v>
       </c>
       <c r="K39" t="s">
-        <v>348</v>
+        <v>384</v>
       </c>
       <c r="L39" t="s">
-        <v>349</v>
+        <v>385</v>
       </c>
       <c r="M39" t="n">
         <v>5</v>
       </c>
       <c r="N39" t="s">
-        <v>350</v>
+        <v>386</v>
       </c>
       <c r="O39" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P39" t="s"/>
       <c r="Q39" t="s"/>
@@ -5128,56 +5545,60 @@
         <v>0</v>
       </c>
       <c r="W39" t="s">
-        <v>351</v>
+        <v>387</v>
       </c>
       <c r="X39" t="s">
-        <v>352</v>
+        <v>388</v>
       </c>
       <c r="Y39" t="s">
-        <v>353</v>
+        <v>389</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
         <v>55716</v>
       </c>
-      <c r="B40" t="s"/>
-      <c r="C40" t="s"/>
+      <c r="B40" t="n">
+        <v>7033</v>
+      </c>
+      <c r="C40" t="s">
+        <v>390</v>
+      </c>
       <c r="D40" t="n">
         <v>39</v>
       </c>
       <c r="E40" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F40" t="s">
-        <v>354</v>
+        <v>391</v>
       </c>
       <c r="G40" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H40" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I40" t="s">
-        <v>355</v>
+        <v>392</v>
       </c>
       <c r="J40" t="s">
-        <v>356</v>
+        <v>393</v>
       </c>
       <c r="K40" t="s">
-        <v>357</v>
+        <v>394</v>
       </c>
       <c r="L40" t="s">
-        <v>358</v>
+        <v>395</v>
       </c>
       <c r="M40" t="n">
         <v>4</v>
       </c>
       <c r="N40" t="s">
-        <v>350</v>
+        <v>386</v>
       </c>
       <c r="O40" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P40" t="s"/>
       <c r="Q40" t="n">
@@ -5195,56 +5616,60 @@
         <v>0</v>
       </c>
       <c r="W40" t="s">
-        <v>359</v>
+        <v>396</v>
       </c>
       <c r="X40" t="s">
-        <v>360</v>
+        <v>397</v>
       </c>
       <c r="Y40" t="s">
-        <v>361</v>
+        <v>398</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
         <v>55716</v>
       </c>
-      <c r="B41" t="s"/>
-      <c r="C41" t="s"/>
+      <c r="B41" t="n">
+        <v>2553</v>
+      </c>
+      <c r="C41" t="s">
+        <v>399</v>
+      </c>
       <c r="D41" t="n">
         <v>40</v>
       </c>
       <c r="E41" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F41" t="s">
-        <v>362</v>
+        <v>400</v>
       </c>
       <c r="G41" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H41" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I41" t="s">
-        <v>363</v>
+        <v>401</v>
       </c>
       <c r="J41" t="s">
-        <v>364</v>
+        <v>402</v>
       </c>
       <c r="K41" t="s">
-        <v>365</v>
+        <v>403</v>
       </c>
       <c r="L41" t="s">
-        <v>366</v>
+        <v>404</v>
       </c>
       <c r="M41" t="n">
         <v>5</v>
       </c>
       <c r="N41" t="s">
-        <v>367</v>
+        <v>405</v>
       </c>
       <c r="O41" t="s">
-        <v>166</v>
+        <v>181</v>
       </c>
       <c r="P41" t="n">
         <v>3</v>
@@ -5266,56 +5691,60 @@
         <v>0</v>
       </c>
       <c r="W41" t="s">
-        <v>351</v>
+        <v>387</v>
       </c>
       <c r="X41" t="s">
-        <v>352</v>
+        <v>388</v>
       </c>
       <c r="Y41" t="s">
-        <v>368</v>
+        <v>406</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
         <v>55716</v>
       </c>
-      <c r="B42" t="s"/>
-      <c r="C42" t="s"/>
+      <c r="B42" t="n">
+        <v>156124</v>
+      </c>
+      <c r="C42" t="s">
+        <v>407</v>
+      </c>
       <c r="D42" t="n">
         <v>41</v>
       </c>
       <c r="E42" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F42" t="s">
-        <v>369</v>
+        <v>408</v>
       </c>
       <c r="G42" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H42" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I42" t="s">
-        <v>370</v>
+        <v>409</v>
       </c>
       <c r="J42" t="s">
-        <v>371</v>
+        <v>410</v>
       </c>
       <c r="K42" t="s">
-        <v>372</v>
+        <v>411</v>
       </c>
       <c r="L42" t="s">
-        <v>373</v>
+        <v>412</v>
       </c>
       <c r="M42" t="n">
         <v>2</v>
       </c>
       <c r="N42" t="s">
-        <v>367</v>
+        <v>405</v>
       </c>
       <c r="O42" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P42" t="n">
         <v>3</v>
@@ -5337,56 +5766,60 @@
         <v>0</v>
       </c>
       <c r="W42" t="s">
-        <v>374</v>
+        <v>413</v>
       </c>
       <c r="X42" t="s">
-        <v>375</v>
+        <v>414</v>
       </c>
       <c r="Y42" t="s">
-        <v>376</v>
+        <v>415</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
         <v>55716</v>
       </c>
-      <c r="B43" t="s"/>
-      <c r="C43" t="s"/>
+      <c r="B43" t="n">
+        <v>156125</v>
+      </c>
+      <c r="C43" t="s">
+        <v>416</v>
+      </c>
       <c r="D43" t="n">
         <v>42</v>
       </c>
       <c r="E43" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F43" t="s">
-        <v>377</v>
+        <v>417</v>
       </c>
       <c r="G43" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H43" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I43" t="s">
-        <v>378</v>
+        <v>418</v>
       </c>
       <c r="J43" t="s">
-        <v>379</v>
+        <v>419</v>
       </c>
       <c r="K43" t="s">
-        <v>380</v>
+        <v>420</v>
       </c>
       <c r="L43" t="s">
-        <v>381</v>
+        <v>421</v>
       </c>
       <c r="M43" t="n">
         <v>1</v>
       </c>
       <c r="N43" t="s">
-        <v>382</v>
+        <v>422</v>
       </c>
       <c r="O43" t="s">
-        <v>166</v>
+        <v>181</v>
       </c>
       <c r="P43" t="n">
         <v>2</v>
@@ -5404,56 +5837,60 @@
         <v>0</v>
       </c>
       <c r="W43" t="s">
-        <v>383</v>
+        <v>423</v>
       </c>
       <c r="X43" t="s">
-        <v>384</v>
+        <v>424</v>
       </c>
       <c r="Y43" t="s">
-        <v>385</v>
+        <v>425</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
         <v>55716</v>
       </c>
-      <c r="B44" t="s"/>
-      <c r="C44" t="s"/>
+      <c r="B44" t="n">
+        <v>156126</v>
+      </c>
+      <c r="C44" t="s">
+        <v>426</v>
+      </c>
       <c r="D44" t="n">
         <v>43</v>
       </c>
       <c r="E44" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F44" t="s">
-        <v>386</v>
+        <v>427</v>
       </c>
       <c r="G44" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H44" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I44" t="s">
-        <v>387</v>
+        <v>428</v>
       </c>
       <c r="J44" t="s">
-        <v>388</v>
+        <v>429</v>
       </c>
       <c r="K44" t="s">
-        <v>389</v>
+        <v>430</v>
       </c>
       <c r="L44" t="s">
-        <v>390</v>
+        <v>431</v>
       </c>
       <c r="M44" t="n">
         <v>4</v>
       </c>
       <c r="N44" t="s">
-        <v>391</v>
+        <v>432</v>
       </c>
       <c r="O44" t="s">
-        <v>202</v>
+        <v>221</v>
       </c>
       <c r="P44" t="s"/>
       <c r="Q44" t="s"/>
@@ -5465,56 +5902,60 @@
         <v>0</v>
       </c>
       <c r="W44" t="s">
-        <v>392</v>
+        <v>433</v>
       </c>
       <c r="X44" t="s">
-        <v>393</v>
+        <v>434</v>
       </c>
       <c r="Y44" t="s">
-        <v>394</v>
+        <v>435</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
         <v>55716</v>
       </c>
-      <c r="B45" t="s"/>
-      <c r="C45" t="s"/>
+      <c r="B45" t="n">
+        <v>121548</v>
+      </c>
+      <c r="C45" t="s">
+        <v>436</v>
+      </c>
       <c r="D45" t="n">
         <v>44</v>
       </c>
       <c r="E45" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F45" t="s">
-        <v>395</v>
+        <v>437</v>
       </c>
       <c r="G45" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H45" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I45" t="s">
-        <v>396</v>
+        <v>438</v>
       </c>
       <c r="J45" t="s">
-        <v>397</v>
+        <v>439</v>
       </c>
       <c r="K45" t="s">
-        <v>398</v>
+        <v>440</v>
       </c>
       <c r="L45" t="s">
-        <v>399</v>
+        <v>441</v>
       </c>
       <c r="M45" t="n">
         <v>5</v>
       </c>
       <c r="N45" t="s">
-        <v>382</v>
+        <v>422</v>
       </c>
       <c r="O45" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P45" t="n">
         <v>3</v>
@@ -5536,56 +5977,60 @@
         <v>0</v>
       </c>
       <c r="W45" t="s">
-        <v>392</v>
+        <v>433</v>
       </c>
       <c r="X45" t="s">
-        <v>393</v>
+        <v>434</v>
       </c>
       <c r="Y45" t="s">
-        <v>400</v>
+        <v>442</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
         <v>55716</v>
       </c>
-      <c r="B46" t="s"/>
-      <c r="C46" t="s"/>
+      <c r="B46" t="n">
+        <v>156127</v>
+      </c>
+      <c r="C46" t="s">
+        <v>443</v>
+      </c>
       <c r="D46" t="n">
         <v>45</v>
       </c>
       <c r="E46" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F46" t="s">
-        <v>401</v>
+        <v>444</v>
       </c>
       <c r="G46" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H46" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I46" t="s">
-        <v>402</v>
+        <v>445</v>
       </c>
       <c r="J46" t="s">
-        <v>403</v>
+        <v>446</v>
       </c>
       <c r="K46" t="s">
-        <v>140</v>
+        <v>152</v>
       </c>
       <c r="L46" t="s">
-        <v>404</v>
+        <v>447</v>
       </c>
       <c r="M46" t="n">
         <v>4</v>
       </c>
       <c r="N46" t="s">
-        <v>382</v>
+        <v>422</v>
       </c>
       <c r="O46" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P46" t="s"/>
       <c r="Q46" t="s"/>
@@ -5597,56 +6042,60 @@
         <v>0</v>
       </c>
       <c r="W46" t="s">
-        <v>405</v>
+        <v>448</v>
       </c>
       <c r="X46" t="s">
-        <v>406</v>
+        <v>449</v>
       </c>
       <c r="Y46" t="s">
-        <v>407</v>
+        <v>450</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
         <v>55716</v>
       </c>
-      <c r="B47" t="s"/>
-      <c r="C47" t="s"/>
+      <c r="B47" t="n">
+        <v>156128</v>
+      </c>
+      <c r="C47" t="s">
+        <v>451</v>
+      </c>
       <c r="D47" t="n">
         <v>46</v>
       </c>
       <c r="E47" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F47" t="s">
-        <v>408</v>
+        <v>452</v>
       </c>
       <c r="G47" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H47" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I47" t="s">
-        <v>409</v>
+        <v>453</v>
       </c>
       <c r="J47" t="s">
-        <v>410</v>
+        <v>454</v>
       </c>
       <c r="K47" t="s">
-        <v>411</v>
+        <v>455</v>
       </c>
       <c r="L47" t="s">
-        <v>412</v>
+        <v>456</v>
       </c>
       <c r="M47" t="n">
         <v>5</v>
       </c>
       <c r="N47" t="s">
-        <v>382</v>
+        <v>422</v>
       </c>
       <c r="O47" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P47" t="n">
         <v>5</v>
@@ -5668,56 +6117,60 @@
         <v>0</v>
       </c>
       <c r="W47" t="s">
-        <v>413</v>
+        <v>457</v>
       </c>
       <c r="X47" t="s">
-        <v>414</v>
+        <v>458</v>
       </c>
       <c r="Y47" t="s">
-        <v>415</v>
+        <v>459</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
         <v>55716</v>
       </c>
-      <c r="B48" t="s"/>
-      <c r="C48" t="s"/>
+      <c r="B48" t="n">
+        <v>156129</v>
+      </c>
+      <c r="C48" t="s">
+        <v>460</v>
+      </c>
       <c r="D48" t="n">
         <v>47</v>
       </c>
       <c r="E48" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F48" t="s">
-        <v>416</v>
+        <v>461</v>
       </c>
       <c r="G48" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H48" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I48" t="s">
-        <v>417</v>
+        <v>462</v>
       </c>
       <c r="J48" t="s">
-        <v>418</v>
+        <v>463</v>
       </c>
       <c r="K48" t="s">
-        <v>419</v>
+        <v>464</v>
       </c>
       <c r="L48" t="s">
-        <v>420</v>
+        <v>465</v>
       </c>
       <c r="M48" t="n">
         <v>5</v>
       </c>
       <c r="N48" t="s">
-        <v>421</v>
+        <v>466</v>
       </c>
       <c r="O48" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P48" t="s"/>
       <c r="Q48" t="s"/>
@@ -5729,56 +6182,60 @@
         <v>0</v>
       </c>
       <c r="W48" t="s">
-        <v>422</v>
+        <v>467</v>
       </c>
       <c r="X48" t="s">
-        <v>423</v>
+        <v>468</v>
       </c>
       <c r="Y48" t="s">
-        <v>424</v>
+        <v>469</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
         <v>55716</v>
       </c>
-      <c r="B49" t="s"/>
-      <c r="C49" t="s"/>
+      <c r="B49" t="n">
+        <v>16965</v>
+      </c>
+      <c r="C49" t="s">
+        <v>470</v>
+      </c>
       <c r="D49" t="n">
         <v>48</v>
       </c>
       <c r="E49" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F49" t="s">
-        <v>425</v>
+        <v>471</v>
       </c>
       <c r="G49" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H49" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I49" t="s">
-        <v>426</v>
+        <v>472</v>
       </c>
       <c r="J49" t="s">
-        <v>427</v>
+        <v>473</v>
       </c>
       <c r="K49" t="s">
-        <v>428</v>
+        <v>474</v>
       </c>
       <c r="L49" t="s">
-        <v>429</v>
+        <v>475</v>
       </c>
       <c r="M49" t="n">
         <v>5</v>
       </c>
       <c r="N49" t="s">
-        <v>421</v>
+        <v>466</v>
       </c>
       <c r="O49" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P49" t="n">
         <v>5</v>
@@ -5800,56 +6257,60 @@
         <v>0</v>
       </c>
       <c r="W49" t="s">
-        <v>430</v>
+        <v>476</v>
       </c>
       <c r="X49" t="s">
-        <v>431</v>
+        <v>477</v>
       </c>
       <c r="Y49" t="s">
-        <v>432</v>
+        <v>478</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
         <v>55716</v>
       </c>
-      <c r="B50" t="s"/>
-      <c r="C50" t="s"/>
+      <c r="B50" t="n">
+        <v>156130</v>
+      </c>
+      <c r="C50" t="s">
+        <v>479</v>
+      </c>
       <c r="D50" t="n">
         <v>49</v>
       </c>
       <c r="E50" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F50" t="s">
-        <v>433</v>
+        <v>480</v>
       </c>
       <c r="G50" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H50" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I50" t="s">
-        <v>434</v>
+        <v>481</v>
       </c>
       <c r="J50" t="s">
-        <v>435</v>
+        <v>482</v>
       </c>
       <c r="K50" t="s">
-        <v>436</v>
+        <v>483</v>
       </c>
       <c r="L50" t="s">
-        <v>437</v>
+        <v>484</v>
       </c>
       <c r="M50" t="n">
         <v>1</v>
       </c>
       <c r="N50" t="s">
-        <v>391</v>
+        <v>432</v>
       </c>
       <c r="O50" t="s">
-        <v>166</v>
+        <v>181</v>
       </c>
       <c r="P50" t="n">
         <v>3</v>
@@ -5871,56 +6332,60 @@
         <v>0</v>
       </c>
       <c r="W50" t="s">
-        <v>438</v>
+        <v>485</v>
       </c>
       <c r="X50" t="s">
-        <v>439</v>
+        <v>486</v>
       </c>
       <c r="Y50" t="s">
-        <v>440</v>
+        <v>487</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
         <v>55716</v>
       </c>
-      <c r="B51" t="s"/>
-      <c r="C51" t="s"/>
+      <c r="B51" t="n">
+        <v>156131</v>
+      </c>
+      <c r="C51" t="s">
+        <v>488</v>
+      </c>
       <c r="D51" t="n">
         <v>50</v>
       </c>
       <c r="E51" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F51" t="s">
-        <v>441</v>
+        <v>489</v>
       </c>
       <c r="G51" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H51" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I51" t="s">
-        <v>442</v>
+        <v>490</v>
       </c>
       <c r="J51" t="s">
-        <v>443</v>
+        <v>491</v>
       </c>
       <c r="K51" t="s">
-        <v>444</v>
+        <v>492</v>
       </c>
       <c r="L51" t="s">
-        <v>445</v>
+        <v>493</v>
       </c>
       <c r="M51" t="n">
         <v>4</v>
       </c>
       <c r="N51" t="s">
-        <v>391</v>
+        <v>432</v>
       </c>
       <c r="O51" t="s">
-        <v>166</v>
+        <v>181</v>
       </c>
       <c r="P51" t="n">
         <v>5</v>
@@ -5944,50 +6409,54 @@
       <c r="W51" t="s"/>
       <c r="X51" t="s"/>
       <c r="Y51" t="s">
-        <v>445</v>
+        <v>493</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
         <v>55716</v>
       </c>
-      <c r="B52" t="s"/>
-      <c r="C52" t="s"/>
+      <c r="B52" t="n">
+        <v>156130</v>
+      </c>
+      <c r="C52" t="s">
+        <v>488</v>
+      </c>
       <c r="D52" t="n">
         <v>51</v>
       </c>
       <c r="E52" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F52" t="s">
-        <v>446</v>
+        <v>494</v>
       </c>
       <c r="G52" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H52" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I52" t="s">
-        <v>447</v>
+        <v>495</v>
       </c>
       <c r="J52" t="s">
-        <v>448</v>
+        <v>496</v>
       </c>
       <c r="K52" t="s">
-        <v>449</v>
+        <v>497</v>
       </c>
       <c r="L52" t="s">
-        <v>450</v>
+        <v>498</v>
       </c>
       <c r="M52" t="n">
         <v>4</v>
       </c>
       <c r="N52" t="s">
-        <v>451</v>
+        <v>499</v>
       </c>
       <c r="O52" t="s">
-        <v>166</v>
+        <v>181</v>
       </c>
       <c r="P52" t="n">
         <v>5</v>
@@ -6011,41 +6480,45 @@
       <c r="W52" t="s"/>
       <c r="X52" t="s"/>
       <c r="Y52" t="s">
-        <v>450</v>
+        <v>498</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
         <v>55716</v>
       </c>
-      <c r="B53" t="s"/>
-      <c r="C53" t="s"/>
+      <c r="B53" t="n">
+        <v>1367</v>
+      </c>
+      <c r="C53" t="s">
+        <v>500</v>
+      </c>
       <c r="D53" t="n">
         <v>52</v>
       </c>
       <c r="E53" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F53" t="s">
-        <v>452</v>
+        <v>501</v>
       </c>
       <c r="G53" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H53" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I53" t="s">
-        <v>453</v>
+        <v>502</v>
       </c>
       <c r="J53" t="s">
-        <v>454</v>
+        <v>503</v>
       </c>
       <c r="K53" t="s">
-        <v>455</v>
+        <v>504</v>
       </c>
       <c r="L53" t="s">
-        <v>456</v>
+        <v>505</v>
       </c>
       <c r="M53" t="n">
         <v>5</v>
@@ -6074,50 +6547,54 @@
       <c r="W53" t="s"/>
       <c r="X53" t="s"/>
       <c r="Y53" t="s">
-        <v>456</v>
+        <v>505</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
         <v>55716</v>
       </c>
-      <c r="B54" t="s"/>
-      <c r="C54" t="s"/>
+      <c r="B54" t="n">
+        <v>156132</v>
+      </c>
+      <c r="C54" t="s">
+        <v>506</v>
+      </c>
       <c r="D54" t="n">
         <v>53</v>
       </c>
       <c r="E54" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F54" t="s">
-        <v>457</v>
+        <v>507</v>
       </c>
       <c r="G54" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H54" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I54" t="s">
-        <v>458</v>
+        <v>508</v>
       </c>
       <c r="J54" t="s">
-        <v>459</v>
+        <v>509</v>
       </c>
       <c r="K54" t="s">
-        <v>460</v>
+        <v>510</v>
       </c>
       <c r="L54" t="s">
-        <v>461</v>
+        <v>511</v>
       </c>
       <c r="M54" t="n">
         <v>5</v>
       </c>
       <c r="N54" t="s">
-        <v>462</v>
+        <v>512</v>
       </c>
       <c r="O54" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="P54" t="n">
         <v>5</v>
@@ -6139,56 +6616,60 @@
         <v>0</v>
       </c>
       <c r="W54" t="s">
-        <v>463</v>
+        <v>513</v>
       </c>
       <c r="X54" t="s">
-        <v>464</v>
+        <v>514</v>
       </c>
       <c r="Y54" t="s">
-        <v>465</v>
+        <v>515</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
         <v>55716</v>
       </c>
-      <c r="B55" t="s"/>
-      <c r="C55" t="s"/>
+      <c r="B55" t="n">
+        <v>156133</v>
+      </c>
+      <c r="C55" t="s">
+        <v>516</v>
+      </c>
       <c r="D55" t="n">
         <v>54</v>
       </c>
       <c r="E55" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F55" t="s">
-        <v>466</v>
+        <v>517</v>
       </c>
       <c r="G55" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H55" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I55" t="s">
-        <v>467</v>
+        <v>518</v>
       </c>
       <c r="J55" t="s">
-        <v>468</v>
+        <v>519</v>
       </c>
       <c r="K55" t="s">
-        <v>469</v>
+        <v>520</v>
       </c>
       <c r="L55" t="s">
-        <v>470</v>
+        <v>521</v>
       </c>
       <c r="M55" t="n">
         <v>5</v>
       </c>
       <c r="N55" t="s">
-        <v>471</v>
+        <v>522</v>
       </c>
       <c r="O55" t="s">
-        <v>166</v>
+        <v>181</v>
       </c>
       <c r="P55" t="n">
         <v>5</v>
@@ -6210,56 +6691,60 @@
         <v>0</v>
       </c>
       <c r="W55" t="s">
-        <v>463</v>
+        <v>513</v>
       </c>
       <c r="X55" t="s">
-        <v>464</v>
+        <v>514</v>
       </c>
       <c r="Y55" t="s">
-        <v>472</v>
+        <v>523</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
         <v>55716</v>
       </c>
-      <c r="B56" t="s"/>
-      <c r="C56" t="s"/>
+      <c r="B56" t="n">
+        <v>156134</v>
+      </c>
+      <c r="C56" t="s">
+        <v>524</v>
+      </c>
       <c r="D56" t="n">
         <v>55</v>
       </c>
       <c r="E56" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F56" t="s">
-        <v>473</v>
+        <v>525</v>
       </c>
       <c r="G56" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H56" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I56" t="s">
-        <v>474</v>
+        <v>526</v>
       </c>
       <c r="J56" t="s">
-        <v>475</v>
+        <v>527</v>
       </c>
       <c r="K56" t="s">
-        <v>476</v>
+        <v>528</v>
       </c>
       <c r="L56" t="s">
-        <v>477</v>
+        <v>529</v>
       </c>
       <c r="M56" t="n">
         <v>5</v>
       </c>
       <c r="N56" t="s">
-        <v>478</v>
+        <v>530</v>
       </c>
       <c r="O56" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P56" t="n">
         <v>5</v>
@@ -6281,56 +6766,60 @@
         <v>0</v>
       </c>
       <c r="W56" t="s">
-        <v>463</v>
+        <v>513</v>
       </c>
       <c r="X56" t="s">
-        <v>464</v>
+        <v>514</v>
       </c>
       <c r="Y56" t="s">
-        <v>479</v>
+        <v>531</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
         <v>55716</v>
       </c>
-      <c r="B57" t="s"/>
-      <c r="C57" t="s"/>
+      <c r="B57" t="n">
+        <v>156135</v>
+      </c>
+      <c r="C57" t="s">
+        <v>532</v>
+      </c>
       <c r="D57" t="n">
         <v>56</v>
       </c>
       <c r="E57" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F57" t="s">
-        <v>480</v>
+        <v>533</v>
       </c>
       <c r="G57" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H57" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I57" t="s">
-        <v>481</v>
+        <v>534</v>
       </c>
       <c r="J57" t="s">
-        <v>482</v>
+        <v>535</v>
       </c>
       <c r="K57" t="s">
-        <v>483</v>
+        <v>536</v>
       </c>
       <c r="L57" t="s">
-        <v>484</v>
+        <v>537</v>
       </c>
       <c r="M57" t="n">
         <v>5</v>
       </c>
       <c r="N57" t="s">
-        <v>485</v>
+        <v>538</v>
       </c>
       <c r="O57" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P57" t="n">
         <v>5</v>
@@ -6354,50 +6843,54 @@
       <c r="W57" t="s"/>
       <c r="X57" t="s"/>
       <c r="Y57" t="s">
-        <v>484</v>
+        <v>537</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
         <v>55716</v>
       </c>
-      <c r="B58" t="s"/>
-      <c r="C58" t="s"/>
+      <c r="B58" t="n">
+        <v>81574</v>
+      </c>
+      <c r="C58" t="s">
+        <v>539</v>
+      </c>
       <c r="D58" t="n">
         <v>57</v>
       </c>
       <c r="E58" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F58" t="s">
-        <v>486</v>
+        <v>540</v>
       </c>
       <c r="G58" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H58" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I58" t="s">
-        <v>487</v>
+        <v>541</v>
       </c>
       <c r="J58" t="s">
-        <v>488</v>
+        <v>542</v>
       </c>
       <c r="K58" t="s">
-        <v>489</v>
+        <v>543</v>
       </c>
       <c r="L58" t="s">
-        <v>490</v>
+        <v>544</v>
       </c>
       <c r="M58" t="n">
         <v>3</v>
       </c>
       <c r="N58" t="s">
-        <v>485</v>
+        <v>538</v>
       </c>
       <c r="O58" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P58" t="n">
         <v>2</v>
@@ -6419,56 +6912,60 @@
         <v>0</v>
       </c>
       <c r="W58" t="s">
-        <v>491</v>
+        <v>545</v>
       </c>
       <c r="X58" t="s">
-        <v>492</v>
+        <v>546</v>
       </c>
       <c r="Y58" t="s">
-        <v>493</v>
+        <v>547</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
         <v>55716</v>
       </c>
-      <c r="B59" t="s"/>
-      <c r="C59" t="s"/>
+      <c r="B59" t="n">
+        <v>156136</v>
+      </c>
+      <c r="C59" t="s">
+        <v>548</v>
+      </c>
       <c r="D59" t="n">
         <v>58</v>
       </c>
       <c r="E59" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F59" t="s">
-        <v>494</v>
+        <v>549</v>
       </c>
       <c r="G59" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H59" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I59" t="s">
-        <v>495</v>
+        <v>550</v>
       </c>
       <c r="J59" t="s">
-        <v>496</v>
+        <v>551</v>
       </c>
       <c r="K59" t="s">
-        <v>497</v>
+        <v>552</v>
       </c>
       <c r="L59" t="s">
-        <v>498</v>
+        <v>553</v>
       </c>
       <c r="M59" t="n">
         <v>5</v>
       </c>
       <c r="N59" t="s">
-        <v>499</v>
+        <v>554</v>
       </c>
       <c r="O59" t="s">
-        <v>166</v>
+        <v>181</v>
       </c>
       <c r="P59" t="n">
         <v>5</v>
@@ -6490,56 +6987,60 @@
         <v>0</v>
       </c>
       <c r="W59" t="s">
-        <v>500</v>
+        <v>555</v>
       </c>
       <c r="X59" t="s">
-        <v>501</v>
+        <v>556</v>
       </c>
       <c r="Y59" t="s">
-        <v>502</v>
+        <v>557</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
         <v>55716</v>
       </c>
-      <c r="B60" t="s"/>
-      <c r="C60" t="s"/>
+      <c r="B60" t="n">
+        <v>156137</v>
+      </c>
+      <c r="C60" t="s">
+        <v>558</v>
+      </c>
       <c r="D60" t="n">
         <v>59</v>
       </c>
       <c r="E60" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F60" t="s">
-        <v>503</v>
+        <v>559</v>
       </c>
       <c r="G60" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H60" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I60" t="s">
-        <v>504</v>
+        <v>560</v>
       </c>
       <c r="J60" t="s">
-        <v>505</v>
+        <v>561</v>
       </c>
       <c r="K60" t="s">
-        <v>506</v>
+        <v>562</v>
       </c>
       <c r="L60" t="s">
-        <v>507</v>
+        <v>563</v>
       </c>
       <c r="M60" t="n">
         <v>3</v>
       </c>
       <c r="N60" t="s">
-        <v>508</v>
+        <v>564</v>
       </c>
       <c r="O60" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P60" t="n">
         <v>2</v>
@@ -6563,50 +7064,54 @@
       <c r="W60" t="s"/>
       <c r="X60" t="s"/>
       <c r="Y60" t="s">
-        <v>509</v>
+        <v>565</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
         <v>55716</v>
       </c>
-      <c r="B61" t="s"/>
-      <c r="C61" t="s"/>
+      <c r="B61" t="n">
+        <v>1063</v>
+      </c>
+      <c r="C61" t="s">
+        <v>566</v>
+      </c>
       <c r="D61" t="n">
         <v>60</v>
       </c>
       <c r="E61" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F61" t="s">
-        <v>510</v>
+        <v>567</v>
       </c>
       <c r="G61" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H61" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I61" t="s">
-        <v>511</v>
+        <v>568</v>
       </c>
       <c r="J61" t="s">
-        <v>512</v>
+        <v>569</v>
       </c>
       <c r="K61" t="s">
-        <v>513</v>
+        <v>570</v>
       </c>
       <c r="L61" t="s">
-        <v>514</v>
+        <v>571</v>
       </c>
       <c r="M61" t="n">
         <v>3</v>
       </c>
       <c r="N61" t="s">
-        <v>515</v>
+        <v>572</v>
       </c>
       <c r="O61" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P61" t="n">
         <v>1</v>
@@ -6628,56 +7133,60 @@
         <v>0</v>
       </c>
       <c r="W61" t="s">
-        <v>516</v>
+        <v>573</v>
       </c>
       <c r="X61" t="s">
-        <v>517</v>
+        <v>574</v>
       </c>
       <c r="Y61" t="s">
-        <v>518</v>
+        <v>575</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
         <v>55716</v>
       </c>
-      <c r="B62" t="s"/>
-      <c r="C62" t="s"/>
+      <c r="B62" t="n">
+        <v>10096</v>
+      </c>
+      <c r="C62" t="s">
+        <v>297</v>
+      </c>
       <c r="D62" t="n">
         <v>61</v>
       </c>
       <c r="E62" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F62" t="s">
-        <v>519</v>
+        <v>576</v>
       </c>
       <c r="G62" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H62" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I62" t="s">
-        <v>520</v>
+        <v>577</v>
       </c>
       <c r="J62" t="s">
-        <v>521</v>
+        <v>578</v>
       </c>
       <c r="K62" t="s">
-        <v>522</v>
+        <v>579</v>
       </c>
       <c r="L62" t="s">
-        <v>523</v>
+        <v>580</v>
       </c>
       <c r="M62" t="n">
         <v>5</v>
       </c>
       <c r="N62" t="s">
-        <v>524</v>
+        <v>581</v>
       </c>
       <c r="O62" t="s">
-        <v>166</v>
+        <v>181</v>
       </c>
       <c r="P62" t="n">
         <v>4</v>
@@ -6699,56 +7208,60 @@
         <v>0</v>
       </c>
       <c r="W62" t="s">
-        <v>525</v>
+        <v>582</v>
       </c>
       <c r="X62" t="s">
-        <v>526</v>
+        <v>583</v>
       </c>
       <c r="Y62" t="s">
-        <v>527</v>
+        <v>584</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
         <v>55716</v>
       </c>
-      <c r="B63" t="s"/>
-      <c r="C63" t="s"/>
+      <c r="B63" t="n">
+        <v>25479</v>
+      </c>
+      <c r="C63" t="s">
+        <v>585</v>
+      </c>
       <c r="D63" t="n">
         <v>62</v>
       </c>
       <c r="E63" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F63" t="s">
-        <v>528</v>
+        <v>586</v>
       </c>
       <c r="G63" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H63" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I63" t="s">
-        <v>529</v>
+        <v>587</v>
       </c>
       <c r="J63" t="s">
-        <v>530</v>
+        <v>588</v>
       </c>
       <c r="K63" t="s">
-        <v>531</v>
+        <v>589</v>
       </c>
       <c r="L63" t="s">
-        <v>532</v>
+        <v>590</v>
       </c>
       <c r="M63" t="n">
         <v>3</v>
       </c>
       <c r="N63" t="s">
-        <v>533</v>
+        <v>591</v>
       </c>
       <c r="O63" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P63" t="n">
         <v>2</v>
@@ -6770,47 +7283,51 @@
         <v>0</v>
       </c>
       <c r="W63" t="s">
-        <v>534</v>
+        <v>592</v>
       </c>
       <c r="X63" t="s">
-        <v>535</v>
+        <v>593</v>
       </c>
       <c r="Y63" t="s">
-        <v>536</v>
+        <v>594</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
         <v>55716</v>
       </c>
-      <c r="B64" t="s"/>
-      <c r="C64" t="s"/>
+      <c r="B64" t="n">
+        <v>156138</v>
+      </c>
+      <c r="C64" t="s">
+        <v>595</v>
+      </c>
       <c r="D64" t="n">
         <v>63</v>
       </c>
       <c r="E64" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F64" t="s">
-        <v>537</v>
+        <v>596</v>
       </c>
       <c r="G64" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H64" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I64" t="s">
-        <v>538</v>
+        <v>597</v>
       </c>
       <c r="J64" t="s">
-        <v>539</v>
+        <v>598</v>
       </c>
       <c r="K64" t="s">
-        <v>540</v>
+        <v>599</v>
       </c>
       <c r="L64" t="s">
-        <v>541</v>
+        <v>600</v>
       </c>
       <c r="M64" t="n">
         <v>5</v>
@@ -6837,56 +7354,60 @@
         <v>0</v>
       </c>
       <c r="W64" t="s">
-        <v>525</v>
+        <v>582</v>
       </c>
       <c r="X64" t="s">
-        <v>526</v>
+        <v>583</v>
       </c>
       <c r="Y64" t="s">
-        <v>542</v>
+        <v>601</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
         <v>55716</v>
       </c>
-      <c r="B65" t="s"/>
-      <c r="C65" t="s"/>
+      <c r="B65" t="n">
+        <v>74942</v>
+      </c>
+      <c r="C65" t="s">
+        <v>602</v>
+      </c>
       <c r="D65" t="n">
         <v>64</v>
       </c>
       <c r="E65" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F65" t="s">
-        <v>543</v>
+        <v>603</v>
       </c>
       <c r="G65" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H65" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I65" t="s">
-        <v>544</v>
+        <v>604</v>
       </c>
       <c r="J65" t="s">
-        <v>545</v>
+        <v>605</v>
       </c>
       <c r="K65" t="s">
-        <v>546</v>
+        <v>606</v>
       </c>
       <c r="L65" t="s">
-        <v>547</v>
+        <v>607</v>
       </c>
       <c r="M65" t="n">
         <v>3</v>
       </c>
       <c r="N65" t="s">
-        <v>548</v>
+        <v>608</v>
       </c>
       <c r="O65" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="P65" t="n">
         <v>2</v>
@@ -6908,56 +7429,60 @@
         <v>0</v>
       </c>
       <c r="W65" t="s">
-        <v>525</v>
+        <v>582</v>
       </c>
       <c r="X65" t="s">
-        <v>526</v>
+        <v>583</v>
       </c>
       <c r="Y65" t="s">
-        <v>549</v>
+        <v>609</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
         <v>55716</v>
       </c>
-      <c r="B66" t="s"/>
-      <c r="C66" t="s"/>
+      <c r="B66" t="n">
+        <v>30962</v>
+      </c>
+      <c r="C66" t="s">
+        <v>610</v>
+      </c>
       <c r="D66" t="n">
         <v>65</v>
       </c>
       <c r="E66" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F66" t="s">
-        <v>550</v>
+        <v>611</v>
       </c>
       <c r="G66" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H66" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I66" t="s">
-        <v>551</v>
+        <v>612</v>
       </c>
       <c r="J66" t="s">
-        <v>552</v>
+        <v>613</v>
       </c>
       <c r="K66" t="s">
-        <v>553</v>
+        <v>614</v>
       </c>
       <c r="L66" t="s">
-        <v>554</v>
+        <v>615</v>
       </c>
       <c r="M66" t="n">
         <v>4</v>
       </c>
       <c r="N66" t="s">
-        <v>548</v>
+        <v>608</v>
       </c>
       <c r="O66" t="s">
-        <v>202</v>
+        <v>221</v>
       </c>
       <c r="P66" t="n">
         <v>3</v>
@@ -6979,56 +7504,60 @@
         <v>0</v>
       </c>
       <c r="W66" t="s">
-        <v>525</v>
+        <v>582</v>
       </c>
       <c r="X66" t="s">
-        <v>526</v>
+        <v>583</v>
       </c>
       <c r="Y66" t="s">
-        <v>555</v>
+        <v>616</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
         <v>55716</v>
       </c>
-      <c r="B67" t="s"/>
-      <c r="C67" t="s"/>
+      <c r="B67" t="n">
+        <v>156139</v>
+      </c>
+      <c r="C67" t="s">
+        <v>617</v>
+      </c>
       <c r="D67" t="n">
         <v>66</v>
       </c>
       <c r="E67" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F67" t="s">
-        <v>556</v>
+        <v>618</v>
       </c>
       <c r="G67" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H67" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I67" t="s">
-        <v>557</v>
+        <v>619</v>
       </c>
       <c r="J67" t="s">
-        <v>558</v>
+        <v>620</v>
       </c>
       <c r="K67" t="s">
-        <v>559</v>
+        <v>621</v>
       </c>
       <c r="L67" t="s">
-        <v>560</v>
+        <v>622</v>
       </c>
       <c r="M67" t="n">
         <v>4</v>
       </c>
       <c r="N67" t="s">
-        <v>524</v>
+        <v>581</v>
       </c>
       <c r="O67" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P67" t="n">
         <v>3</v>
@@ -7050,56 +7579,60 @@
         <v>0</v>
       </c>
       <c r="W67" t="s">
-        <v>525</v>
+        <v>582</v>
       </c>
       <c r="X67" t="s">
-        <v>526</v>
+        <v>583</v>
       </c>
       <c r="Y67" t="s">
-        <v>561</v>
+        <v>623</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
         <v>55716</v>
       </c>
-      <c r="B68" t="s"/>
-      <c r="C68" t="s"/>
+      <c r="B68" t="n">
+        <v>115048</v>
+      </c>
+      <c r="C68" t="s">
+        <v>624</v>
+      </c>
       <c r="D68" t="n">
         <v>67</v>
       </c>
       <c r="E68" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F68" t="s">
-        <v>562</v>
+        <v>625</v>
       </c>
       <c r="G68" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H68" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I68" t="s">
-        <v>563</v>
+        <v>626</v>
       </c>
       <c r="J68" t="s">
-        <v>564</v>
+        <v>627</v>
       </c>
       <c r="K68" t="s">
-        <v>565</v>
+        <v>628</v>
       </c>
       <c r="L68" t="s">
-        <v>566</v>
+        <v>629</v>
       </c>
       <c r="M68" t="n">
         <v>3</v>
       </c>
       <c r="N68" t="s">
-        <v>524</v>
+        <v>581</v>
       </c>
       <c r="O68" t="s">
-        <v>166</v>
+        <v>181</v>
       </c>
       <c r="P68" t="n">
         <v>3</v>
@@ -7123,50 +7656,54 @@
       <c r="W68" t="s"/>
       <c r="X68" t="s"/>
       <c r="Y68" t="s">
-        <v>567</v>
+        <v>630</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
         <v>55716</v>
       </c>
-      <c r="B69" t="s"/>
-      <c r="C69" t="s"/>
+      <c r="B69" t="n">
+        <v>156140</v>
+      </c>
+      <c r="C69" t="s">
+        <v>631</v>
+      </c>
       <c r="D69" t="n">
         <v>68</v>
       </c>
       <c r="E69" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F69" t="s">
-        <v>568</v>
+        <v>632</v>
       </c>
       <c r="G69" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H69" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I69" t="s">
-        <v>569</v>
+        <v>633</v>
       </c>
       <c r="J69" t="s">
-        <v>570</v>
+        <v>634</v>
       </c>
       <c r="K69" t="s">
-        <v>571</v>
+        <v>635</v>
       </c>
       <c r="L69" t="s">
-        <v>572</v>
+        <v>636</v>
       </c>
       <c r="M69" t="n">
         <v>5</v>
       </c>
       <c r="N69" t="s">
-        <v>573</v>
+        <v>637</v>
       </c>
       <c r="O69" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="P69" t="n">
         <v>5</v>
@@ -7188,56 +7725,60 @@
         <v>0</v>
       </c>
       <c r="W69" t="s">
-        <v>525</v>
+        <v>582</v>
       </c>
       <c r="X69" t="s">
-        <v>526</v>
+        <v>583</v>
       </c>
       <c r="Y69" t="s">
-        <v>574</v>
+        <v>638</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
         <v>55716</v>
       </c>
-      <c r="B70" t="s"/>
-      <c r="C70" t="s"/>
+      <c r="B70" t="n">
+        <v>51139</v>
+      </c>
+      <c r="C70" t="s">
+        <v>639</v>
+      </c>
       <c r="D70" t="n">
         <v>69</v>
       </c>
       <c r="E70" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F70" t="s">
-        <v>575</v>
+        <v>640</v>
       </c>
       <c r="G70" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H70" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I70" t="s">
-        <v>576</v>
+        <v>641</v>
       </c>
       <c r="J70" t="s">
-        <v>577</v>
+        <v>642</v>
       </c>
       <c r="K70" t="s">
-        <v>578</v>
+        <v>643</v>
       </c>
       <c r="L70" t="s">
-        <v>579</v>
+        <v>644</v>
       </c>
       <c r="M70" t="n">
         <v>5</v>
       </c>
       <c r="N70" t="s">
-        <v>573</v>
+        <v>637</v>
       </c>
       <c r="O70" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P70" t="n">
         <v>5</v>
@@ -7261,41 +7802,45 @@
       <c r="W70" t="s"/>
       <c r="X70" t="s"/>
       <c r="Y70" t="s">
-        <v>579</v>
+        <v>644</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
         <v>55716</v>
       </c>
-      <c r="B71" t="s"/>
-      <c r="C71" t="s"/>
+      <c r="B71" t="n">
+        <v>156141</v>
+      </c>
+      <c r="C71" t="s">
+        <v>645</v>
+      </c>
       <c r="D71" t="n">
         <v>70</v>
       </c>
       <c r="E71" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F71" t="s">
-        <v>580</v>
+        <v>646</v>
       </c>
       <c r="G71" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H71" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I71" t="s">
-        <v>581</v>
+        <v>647</v>
       </c>
       <c r="J71" t="s">
-        <v>582</v>
+        <v>648</v>
       </c>
       <c r="K71" t="s">
-        <v>583</v>
+        <v>649</v>
       </c>
       <c r="L71" t="s">
-        <v>584</v>
+        <v>650</v>
       </c>
       <c r="M71" t="n">
         <v>5</v>
@@ -7324,41 +7869,45 @@
       <c r="W71" t="s"/>
       <c r="X71" t="s"/>
       <c r="Y71" t="s">
-        <v>584</v>
+        <v>650</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
         <v>55716</v>
       </c>
-      <c r="B72" t="s"/>
-      <c r="C72" t="s"/>
+      <c r="B72" t="n">
+        <v>156142</v>
+      </c>
+      <c r="C72" t="s">
+        <v>651</v>
+      </c>
       <c r="D72" t="n">
         <v>71</v>
       </c>
       <c r="E72" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F72" t="s">
-        <v>585</v>
+        <v>652</v>
       </c>
       <c r="G72" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H72" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I72" t="s">
-        <v>586</v>
+        <v>653</v>
       </c>
       <c r="J72" t="s">
-        <v>587</v>
+        <v>654</v>
       </c>
       <c r="K72" t="s">
-        <v>588</v>
+        <v>655</v>
       </c>
       <c r="L72" t="s">
-        <v>589</v>
+        <v>656</v>
       </c>
       <c r="M72" t="n">
         <v>1</v>
@@ -7385,56 +7934,60 @@
         <v>0</v>
       </c>
       <c r="W72" t="s">
-        <v>590</v>
+        <v>657</v>
       </c>
       <c r="X72" t="s">
-        <v>591</v>
+        <v>658</v>
       </c>
       <c r="Y72" t="s">
-        <v>592</v>
+        <v>659</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
         <v>55716</v>
       </c>
-      <c r="B73" t="s"/>
-      <c r="C73" t="s"/>
+      <c r="B73" t="n">
+        <v>156143</v>
+      </c>
+      <c r="C73" t="s">
+        <v>660</v>
+      </c>
       <c r="D73" t="n">
         <v>72</v>
       </c>
       <c r="E73" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F73" t="s">
-        <v>593</v>
+        <v>661</v>
       </c>
       <c r="G73" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H73" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I73" t="s">
-        <v>594</v>
+        <v>662</v>
       </c>
       <c r="J73" t="s">
-        <v>595</v>
+        <v>663</v>
       </c>
       <c r="K73" t="s">
-        <v>596</v>
+        <v>664</v>
       </c>
       <c r="L73" t="s">
-        <v>597</v>
+        <v>665</v>
       </c>
       <c r="M73" t="n">
         <v>5</v>
       </c>
       <c r="N73" t="s">
-        <v>598</v>
+        <v>666</v>
       </c>
       <c r="O73" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="P73" t="n">
         <v>5</v>
@@ -7458,50 +8011,54 @@
       <c r="W73" t="s"/>
       <c r="X73" t="s"/>
       <c r="Y73" t="s">
-        <v>597</v>
+        <v>665</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
         <v>55716</v>
       </c>
-      <c r="B74" t="s"/>
-      <c r="C74" t="s"/>
+      <c r="B74" t="n">
+        <v>156144</v>
+      </c>
+      <c r="C74" t="s">
+        <v>667</v>
+      </c>
       <c r="D74" t="n">
         <v>73</v>
       </c>
       <c r="E74" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F74" t="s">
-        <v>599</v>
+        <v>668</v>
       </c>
       <c r="G74" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H74" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I74" t="s">
-        <v>600</v>
+        <v>669</v>
       </c>
       <c r="J74" t="s">
-        <v>601</v>
+        <v>670</v>
       </c>
       <c r="K74" t="s">
-        <v>602</v>
+        <v>671</v>
       </c>
       <c r="L74" t="s">
-        <v>603</v>
+        <v>672</v>
       </c>
       <c r="M74" t="n">
         <v>4</v>
       </c>
       <c r="N74" t="s">
-        <v>604</v>
+        <v>673</v>
       </c>
       <c r="O74" t="s">
-        <v>166</v>
+        <v>181</v>
       </c>
       <c r="P74" t="n">
         <v>4</v>
@@ -7525,50 +8082,54 @@
       <c r="W74" t="s"/>
       <c r="X74" t="s"/>
       <c r="Y74" t="s">
-        <v>603</v>
+        <v>672</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
         <v>55716</v>
       </c>
-      <c r="B75" t="s"/>
-      <c r="C75" t="s"/>
+      <c r="B75" t="n">
+        <v>15668</v>
+      </c>
+      <c r="C75" t="s">
+        <v>674</v>
+      </c>
       <c r="D75" t="n">
         <v>74</v>
       </c>
       <c r="E75" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F75" t="s">
-        <v>605</v>
+        <v>675</v>
       </c>
       <c r="G75" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H75" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I75" t="s">
-        <v>606</v>
+        <v>676</v>
       </c>
       <c r="J75" t="s">
-        <v>607</v>
+        <v>677</v>
       </c>
       <c r="K75" t="s">
-        <v>608</v>
+        <v>678</v>
       </c>
       <c r="L75" t="s">
-        <v>609</v>
+        <v>679</v>
       </c>
       <c r="M75" t="n">
         <v>5</v>
       </c>
       <c r="N75" t="s">
-        <v>604</v>
+        <v>673</v>
       </c>
       <c r="O75" t="s">
-        <v>166</v>
+        <v>181</v>
       </c>
       <c r="P75" t="n">
         <v>5</v>
@@ -7592,50 +8153,54 @@
       <c r="W75" t="s"/>
       <c r="X75" t="s"/>
       <c r="Y75" t="s">
-        <v>609</v>
+        <v>679</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
         <v>55716</v>
       </c>
-      <c r="B76" t="s"/>
-      <c r="C76" t="s"/>
+      <c r="B76" t="n">
+        <v>156145</v>
+      </c>
+      <c r="C76" t="s">
+        <v>680</v>
+      </c>
       <c r="D76" t="n">
         <v>75</v>
       </c>
       <c r="E76" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F76" t="s">
-        <v>610</v>
+        <v>681</v>
       </c>
       <c r="G76" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H76" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I76" t="s">
-        <v>611</v>
+        <v>682</v>
       </c>
       <c r="J76" t="s">
-        <v>612</v>
+        <v>683</v>
       </c>
       <c r="K76" t="s">
-        <v>613</v>
+        <v>684</v>
       </c>
       <c r="L76" t="s">
-        <v>614</v>
+        <v>685</v>
       </c>
       <c r="M76" t="n">
         <v>5</v>
       </c>
       <c r="N76" t="s">
-        <v>604</v>
+        <v>673</v>
       </c>
       <c r="O76" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P76" t="n">
         <v>5</v>
@@ -7659,50 +8224,54 @@
       <c r="W76" t="s"/>
       <c r="X76" t="s"/>
       <c r="Y76" t="s">
-        <v>615</v>
+        <v>686</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
         <v>55716</v>
       </c>
-      <c r="B77" t="s"/>
-      <c r="C77" t="s"/>
+      <c r="B77" t="n">
+        <v>156146</v>
+      </c>
+      <c r="C77" t="s">
+        <v>687</v>
+      </c>
       <c r="D77" t="n">
         <v>76</v>
       </c>
       <c r="E77" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F77" t="s">
-        <v>616</v>
+        <v>688</v>
       </c>
       <c r="G77" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H77" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I77" t="s">
-        <v>617</v>
+        <v>689</v>
       </c>
       <c r="J77" t="s">
-        <v>618</v>
+        <v>690</v>
       </c>
       <c r="K77" t="s">
-        <v>619</v>
+        <v>691</v>
       </c>
       <c r="L77" t="s">
-        <v>620</v>
+        <v>692</v>
       </c>
       <c r="M77" t="n">
         <v>5</v>
       </c>
       <c r="N77" t="s">
-        <v>621</v>
+        <v>693</v>
       </c>
       <c r="O77" t="s">
-        <v>166</v>
+        <v>181</v>
       </c>
       <c r="P77" t="n">
         <v>5</v>
@@ -7724,56 +8293,60 @@
         <v>0</v>
       </c>
       <c r="W77" t="s">
-        <v>622</v>
+        <v>694</v>
       </c>
       <c r="X77" t="s">
-        <v>623</v>
+        <v>695</v>
       </c>
       <c r="Y77" t="s">
-        <v>624</v>
+        <v>696</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
         <v>55716</v>
       </c>
-      <c r="B78" t="s"/>
-      <c r="C78" t="s"/>
+      <c r="B78" t="n">
+        <v>922</v>
+      </c>
+      <c r="C78" t="s">
+        <v>697</v>
+      </c>
       <c r="D78" t="n">
         <v>77</v>
       </c>
       <c r="E78" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F78" t="s">
-        <v>625</v>
+        <v>698</v>
       </c>
       <c r="G78" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H78" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I78" t="s">
-        <v>626</v>
+        <v>699</v>
       </c>
       <c r="J78" t="s">
-        <v>627</v>
+        <v>700</v>
       </c>
       <c r="K78" t="s">
-        <v>628</v>
+        <v>701</v>
       </c>
       <c r="L78" t="s">
-        <v>629</v>
+        <v>702</v>
       </c>
       <c r="M78" t="n">
         <v>4</v>
       </c>
       <c r="N78" t="s">
-        <v>621</v>
+        <v>693</v>
       </c>
       <c r="O78" t="s">
-        <v>166</v>
+        <v>181</v>
       </c>
       <c r="P78" t="n">
         <v>3</v>
@@ -7795,56 +8368,60 @@
         <v>0</v>
       </c>
       <c r="W78" t="s">
-        <v>622</v>
+        <v>694</v>
       </c>
       <c r="X78" t="s">
-        <v>623</v>
+        <v>695</v>
       </c>
       <c r="Y78" t="s">
-        <v>630</v>
+        <v>703</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
         <v>55716</v>
       </c>
-      <c r="B79" t="s"/>
-      <c r="C79" t="s"/>
+      <c r="B79" t="n">
+        <v>38072</v>
+      </c>
+      <c r="C79" t="s">
+        <v>704</v>
+      </c>
       <c r="D79" t="n">
         <v>78</v>
       </c>
       <c r="E79" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F79" t="s">
-        <v>631</v>
+        <v>705</v>
       </c>
       <c r="G79" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H79" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I79" t="s">
-        <v>632</v>
+        <v>706</v>
       </c>
       <c r="J79" t="s">
-        <v>627</v>
+        <v>700</v>
       </c>
       <c r="K79" t="s">
-        <v>633</v>
+        <v>707</v>
       </c>
       <c r="L79" t="s">
-        <v>634</v>
+        <v>708</v>
       </c>
       <c r="M79" t="n">
         <v>5</v>
       </c>
       <c r="N79" t="s">
-        <v>621</v>
+        <v>693</v>
       </c>
       <c r="O79" t="s">
-        <v>166</v>
+        <v>181</v>
       </c>
       <c r="P79" t="n">
         <v>5</v>
@@ -7868,50 +8445,54 @@
       <c r="W79" t="s"/>
       <c r="X79" t="s"/>
       <c r="Y79" t="s">
-        <v>634</v>
+        <v>708</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
         <v>55716</v>
       </c>
-      <c r="B80" t="s"/>
-      <c r="C80" t="s"/>
+      <c r="B80" t="n">
+        <v>156147</v>
+      </c>
+      <c r="C80" t="s">
+        <v>709</v>
+      </c>
       <c r="D80" t="n">
         <v>79</v>
       </c>
       <c r="E80" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F80" t="s">
-        <v>635</v>
+        <v>710</v>
       </c>
       <c r="G80" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H80" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I80" t="s">
-        <v>636</v>
+        <v>711</v>
       </c>
       <c r="J80" t="s">
-        <v>627</v>
+        <v>700</v>
       </c>
       <c r="K80" t="s">
-        <v>637</v>
+        <v>712</v>
       </c>
       <c r="L80" t="s">
-        <v>638</v>
+        <v>713</v>
       </c>
       <c r="M80" t="n">
         <v>4</v>
       </c>
       <c r="N80" t="s">
-        <v>621</v>
+        <v>693</v>
       </c>
       <c r="O80" t="s">
-        <v>166</v>
+        <v>181</v>
       </c>
       <c r="P80" t="n">
         <v>4</v>
@@ -7933,56 +8514,60 @@
         <v>0</v>
       </c>
       <c r="W80" t="s">
-        <v>622</v>
+        <v>694</v>
       </c>
       <c r="X80" t="s">
-        <v>623</v>
+        <v>695</v>
       </c>
       <c r="Y80" t="s">
-        <v>639</v>
+        <v>714</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
         <v>55716</v>
       </c>
-      <c r="B81" t="s"/>
-      <c r="C81" t="s"/>
+      <c r="B81" t="n">
+        <v>3896</v>
+      </c>
+      <c r="C81" t="s">
+        <v>715</v>
+      </c>
       <c r="D81" t="n">
         <v>80</v>
       </c>
       <c r="E81" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F81" t="s">
-        <v>640</v>
+        <v>716</v>
       </c>
       <c r="G81" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H81" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I81" t="s">
-        <v>641</v>
+        <v>717</v>
       </c>
       <c r="J81" t="s">
-        <v>642</v>
+        <v>718</v>
       </c>
       <c r="K81" t="s">
-        <v>643</v>
+        <v>719</v>
       </c>
       <c r="L81" t="s">
-        <v>644</v>
+        <v>720</v>
       </c>
       <c r="M81" t="n">
         <v>5</v>
       </c>
       <c r="N81" t="s">
-        <v>621</v>
+        <v>693</v>
       </c>
       <c r="O81" t="s">
-        <v>166</v>
+        <v>181</v>
       </c>
       <c r="P81" t="n">
         <v>5</v>
@@ -8004,56 +8589,60 @@
         <v>0</v>
       </c>
       <c r="W81" t="s">
-        <v>622</v>
+        <v>694</v>
       </c>
       <c r="X81" t="s">
-        <v>623</v>
+        <v>695</v>
       </c>
       <c r="Y81" t="s">
-        <v>645</v>
+        <v>721</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
         <v>55716</v>
       </c>
-      <c r="B82" t="s"/>
-      <c r="C82" t="s"/>
+      <c r="B82" t="n">
+        <v>156148</v>
+      </c>
+      <c r="C82" t="s">
+        <v>722</v>
+      </c>
       <c r="D82" t="n">
         <v>81</v>
       </c>
       <c r="E82" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F82" t="s">
-        <v>646</v>
+        <v>723</v>
       </c>
       <c r="G82" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H82" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I82" t="s">
-        <v>647</v>
+        <v>724</v>
       </c>
       <c r="J82" t="s">
-        <v>642</v>
+        <v>718</v>
       </c>
       <c r="K82" t="s">
-        <v>648</v>
+        <v>725</v>
       </c>
       <c r="L82" t="s">
-        <v>649</v>
+        <v>726</v>
       </c>
       <c r="M82" t="n">
         <v>5</v>
       </c>
       <c r="N82" t="s">
-        <v>621</v>
+        <v>693</v>
       </c>
       <c r="O82" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="P82" t="n">
         <v>5</v>
@@ -8077,50 +8666,54 @@
       <c r="W82" t="s"/>
       <c r="X82" t="s"/>
       <c r="Y82" t="s">
-        <v>649</v>
+        <v>726</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
         <v>55716</v>
       </c>
-      <c r="B83" t="s"/>
-      <c r="C83" t="s"/>
+      <c r="B83" t="n">
+        <v>156149</v>
+      </c>
+      <c r="C83" t="s">
+        <v>727</v>
+      </c>
       <c r="D83" t="n">
         <v>82</v>
       </c>
       <c r="E83" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F83" t="s">
-        <v>650</v>
+        <v>728</v>
       </c>
       <c r="G83" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H83" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I83" t="s">
-        <v>651</v>
+        <v>729</v>
       </c>
       <c r="J83" t="s">
-        <v>652</v>
+        <v>730</v>
       </c>
       <c r="K83" t="s">
-        <v>653</v>
+        <v>731</v>
       </c>
       <c r="L83" t="s">
-        <v>654</v>
+        <v>732</v>
       </c>
       <c r="M83" t="n">
         <v>5</v>
       </c>
       <c r="N83" t="s">
-        <v>621</v>
+        <v>693</v>
       </c>
       <c r="O83" t="s">
-        <v>166</v>
+        <v>181</v>
       </c>
       <c r="P83" t="n">
         <v>5</v>
@@ -8142,47 +8735,51 @@
         <v>0</v>
       </c>
       <c r="W83" t="s">
-        <v>622</v>
+        <v>694</v>
       </c>
       <c r="X83" t="s">
-        <v>623</v>
+        <v>695</v>
       </c>
       <c r="Y83" t="s">
-        <v>655</v>
+        <v>733</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
         <v>55716</v>
       </c>
-      <c r="B84" t="s"/>
-      <c r="C84" t="s"/>
+      <c r="B84" t="n">
+        <v>156150</v>
+      </c>
+      <c r="C84" t="s">
+        <v>734</v>
+      </c>
       <c r="D84" t="n">
         <v>83</v>
       </c>
       <c r="E84" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F84" t="s">
-        <v>656</v>
+        <v>735</v>
       </c>
       <c r="G84" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H84" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I84" t="s">
-        <v>657</v>
+        <v>736</v>
       </c>
       <c r="J84" t="s">
-        <v>658</v>
+        <v>737</v>
       </c>
       <c r="K84" t="s">
-        <v>659</v>
+        <v>738</v>
       </c>
       <c r="L84" t="s">
-        <v>660</v>
+        <v>739</v>
       </c>
       <c r="M84" t="n">
         <v>5</v>
@@ -8211,50 +8808,54 @@
       <c r="W84" t="s"/>
       <c r="X84" t="s"/>
       <c r="Y84" t="s">
-        <v>660</v>
+        <v>739</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
         <v>55716</v>
       </c>
-      <c r="B85" t="s"/>
-      <c r="C85" t="s"/>
+      <c r="B85" t="n">
+        <v>26653</v>
+      </c>
+      <c r="C85" t="s">
+        <v>740</v>
+      </c>
       <c r="D85" t="n">
         <v>84</v>
       </c>
       <c r="E85" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F85" t="s">
-        <v>661</v>
+        <v>741</v>
       </c>
       <c r="G85" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H85" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I85" t="s">
-        <v>662</v>
+        <v>742</v>
       </c>
       <c r="J85" t="s">
-        <v>663</v>
+        <v>743</v>
       </c>
       <c r="K85" t="s">
-        <v>664</v>
+        <v>744</v>
       </c>
       <c r="L85" t="s">
-        <v>665</v>
+        <v>745</v>
       </c>
       <c r="M85" t="n">
         <v>5</v>
       </c>
       <c r="N85" t="s">
-        <v>666</v>
+        <v>746</v>
       </c>
       <c r="O85" t="s">
-        <v>166</v>
+        <v>181</v>
       </c>
       <c r="P85" t="n">
         <v>5</v>
@@ -8276,56 +8877,60 @@
         <v>0</v>
       </c>
       <c r="W85" t="s">
-        <v>667</v>
+        <v>747</v>
       </c>
       <c r="X85" t="s">
-        <v>623</v>
+        <v>695</v>
       </c>
       <c r="Y85" t="s">
-        <v>668</v>
+        <v>748</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
         <v>55716</v>
       </c>
-      <c r="B86" t="s"/>
-      <c r="C86" t="s"/>
+      <c r="B86" t="n">
+        <v>156151</v>
+      </c>
+      <c r="C86" t="s">
+        <v>749</v>
+      </c>
       <c r="D86" t="n">
         <v>85</v>
       </c>
       <c r="E86" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F86" t="s">
-        <v>669</v>
+        <v>750</v>
       </c>
       <c r="G86" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H86" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I86" t="s">
-        <v>670</v>
+        <v>751</v>
       </c>
       <c r="J86" t="s">
-        <v>671</v>
+        <v>752</v>
       </c>
       <c r="K86" t="s">
-        <v>672</v>
+        <v>753</v>
       </c>
       <c r="L86" t="s">
-        <v>673</v>
+        <v>754</v>
       </c>
       <c r="M86" t="n">
         <v>5</v>
       </c>
       <c r="N86" t="s">
-        <v>666</v>
+        <v>746</v>
       </c>
       <c r="O86" t="s">
-        <v>166</v>
+        <v>181</v>
       </c>
       <c r="P86" t="n">
         <v>5</v>
@@ -8347,56 +8952,60 @@
         <v>0</v>
       </c>
       <c r="W86" t="s">
-        <v>667</v>
+        <v>747</v>
       </c>
       <c r="X86" t="s">
-        <v>623</v>
+        <v>695</v>
       </c>
       <c r="Y86" t="s">
-        <v>674</v>
+        <v>755</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
         <v>55716</v>
       </c>
-      <c r="B87" t="s"/>
-      <c r="C87" t="s"/>
+      <c r="B87" t="n">
+        <v>156152</v>
+      </c>
+      <c r="C87" t="s">
+        <v>756</v>
+      </c>
       <c r="D87" t="n">
         <v>86</v>
       </c>
       <c r="E87" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F87" t="s">
-        <v>675</v>
+        <v>757</v>
       </c>
       <c r="G87" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H87" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I87" t="s">
-        <v>676</v>
+        <v>758</v>
       </c>
       <c r="J87" t="s">
-        <v>677</v>
+        <v>759</v>
       </c>
       <c r="K87" t="s">
-        <v>678</v>
+        <v>760</v>
       </c>
       <c r="L87" t="s">
-        <v>679</v>
+        <v>761</v>
       </c>
       <c r="M87" t="n">
         <v>4</v>
       </c>
       <c r="N87" t="s">
-        <v>680</v>
+        <v>762</v>
       </c>
       <c r="O87" t="s">
-        <v>166</v>
+        <v>181</v>
       </c>
       <c r="P87" t="n">
         <v>5</v>
@@ -8418,56 +9027,60 @@
         <v>0</v>
       </c>
       <c r="W87" t="s">
-        <v>667</v>
+        <v>747</v>
       </c>
       <c r="X87" t="s">
-        <v>623</v>
+        <v>695</v>
       </c>
       <c r="Y87" t="s">
-        <v>681</v>
+        <v>763</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
         <v>55716</v>
       </c>
-      <c r="B88" t="s"/>
-      <c r="C88" t="s"/>
+      <c r="B88" t="n">
+        <v>6532</v>
+      </c>
+      <c r="C88" t="s">
+        <v>764</v>
+      </c>
       <c r="D88" t="n">
         <v>87</v>
       </c>
       <c r="E88" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F88" t="s">
-        <v>682</v>
+        <v>765</v>
       </c>
       <c r="G88" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H88" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I88" t="s">
-        <v>683</v>
+        <v>766</v>
       </c>
       <c r="J88" t="s">
-        <v>677</v>
+        <v>759</v>
       </c>
       <c r="K88" t="s">
-        <v>684</v>
+        <v>767</v>
       </c>
       <c r="L88" t="s">
-        <v>685</v>
+        <v>768</v>
       </c>
       <c r="M88" t="n">
         <v>5</v>
       </c>
       <c r="N88" t="s">
-        <v>686</v>
+        <v>769</v>
       </c>
       <c r="O88" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P88" t="n">
         <v>5</v>
@@ -8491,41 +9104,45 @@
       <c r="W88" t="s"/>
       <c r="X88" t="s"/>
       <c r="Y88" t="s">
-        <v>687</v>
+        <v>770</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
         <v>55716</v>
       </c>
-      <c r="B89" t="s"/>
-      <c r="C89" t="s"/>
+      <c r="B89" t="n">
+        <v>156153</v>
+      </c>
+      <c r="C89" t="s">
+        <v>771</v>
+      </c>
       <c r="D89" t="n">
         <v>88</v>
       </c>
       <c r="E89" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F89" t="s">
-        <v>688</v>
+        <v>772</v>
       </c>
       <c r="G89" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H89" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I89" t="s">
-        <v>689</v>
+        <v>773</v>
       </c>
       <c r="J89" t="s">
-        <v>690</v>
+        <v>774</v>
       </c>
       <c r="K89" t="s">
-        <v>691</v>
+        <v>775</v>
       </c>
       <c r="L89" t="s">
-        <v>692</v>
+        <v>776</v>
       </c>
       <c r="M89" t="n">
         <v>5</v>
@@ -8554,50 +9171,54 @@
       <c r="W89" t="s"/>
       <c r="X89" t="s"/>
       <c r="Y89" t="s">
-        <v>692</v>
+        <v>776</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
         <v>55716</v>
       </c>
-      <c r="B90" t="s"/>
-      <c r="C90" t="s"/>
+      <c r="B90" t="n">
+        <v>156154</v>
+      </c>
+      <c r="C90" t="s">
+        <v>777</v>
+      </c>
       <c r="D90" t="n">
         <v>89</v>
       </c>
       <c r="E90" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F90" t="s">
-        <v>693</v>
+        <v>778</v>
       </c>
       <c r="G90" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H90" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I90" t="s">
-        <v>694</v>
+        <v>779</v>
       </c>
       <c r="J90" t="s">
-        <v>695</v>
+        <v>780</v>
       </c>
       <c r="K90" t="s">
-        <v>696</v>
+        <v>781</v>
       </c>
       <c r="L90" t="s">
-        <v>697</v>
+        <v>782</v>
       </c>
       <c r="M90" t="n">
         <v>5</v>
       </c>
       <c r="N90" t="s">
-        <v>686</v>
+        <v>769</v>
       </c>
       <c r="O90" t="s">
-        <v>166</v>
+        <v>181</v>
       </c>
       <c r="P90" t="n">
         <v>4</v>
@@ -8621,50 +9242,54 @@
       <c r="W90" t="s"/>
       <c r="X90" t="s"/>
       <c r="Y90" t="s">
-        <v>697</v>
+        <v>782</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
         <v>55716</v>
       </c>
-      <c r="B91" t="s"/>
-      <c r="C91" t="s"/>
+      <c r="B91" t="n">
+        <v>156155</v>
+      </c>
+      <c r="C91" t="s">
+        <v>783</v>
+      </c>
       <c r="D91" t="n">
         <v>90</v>
       </c>
       <c r="E91" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F91" t="s">
-        <v>698</v>
+        <v>784</v>
       </c>
       <c r="G91" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H91" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I91" t="s">
-        <v>699</v>
+        <v>785</v>
       </c>
       <c r="J91" t="s">
-        <v>700</v>
+        <v>786</v>
       </c>
       <c r="K91" t="s">
-        <v>701</v>
+        <v>787</v>
       </c>
       <c r="L91" t="s">
-        <v>702</v>
+        <v>788</v>
       </c>
       <c r="M91" t="n">
         <v>5</v>
       </c>
       <c r="N91" t="s">
-        <v>680</v>
+        <v>762</v>
       </c>
       <c r="O91" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P91" t="n">
         <v>5</v>
@@ -8688,50 +9313,54 @@
       <c r="W91" t="s"/>
       <c r="X91" t="s"/>
       <c r="Y91" t="s">
-        <v>702</v>
+        <v>788</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
         <v>55716</v>
       </c>
-      <c r="B92" t="s"/>
-      <c r="C92" t="s"/>
+      <c r="B92" t="n">
+        <v>156156</v>
+      </c>
+      <c r="C92" t="s">
+        <v>789</v>
+      </c>
       <c r="D92" t="n">
         <v>91</v>
       </c>
       <c r="E92" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F92" t="s">
-        <v>703</v>
+        <v>790</v>
       </c>
       <c r="G92" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H92" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I92" t="s">
-        <v>704</v>
+        <v>791</v>
       </c>
       <c r="J92" t="s">
-        <v>705</v>
+        <v>792</v>
       </c>
       <c r="K92" t="s">
-        <v>706</v>
+        <v>793</v>
       </c>
       <c r="L92" t="s">
-        <v>707</v>
+        <v>794</v>
       </c>
       <c r="M92" t="n">
         <v>4</v>
       </c>
       <c r="N92" t="s">
-        <v>708</v>
+        <v>795</v>
       </c>
       <c r="O92" t="s">
-        <v>166</v>
+        <v>181</v>
       </c>
       <c r="P92" t="n">
         <v>5</v>
@@ -8751,50 +9380,54 @@
       <c r="W92" t="s"/>
       <c r="X92" t="s"/>
       <c r="Y92" t="s">
-        <v>707</v>
+        <v>794</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
         <v>55716</v>
       </c>
-      <c r="B93" t="s"/>
-      <c r="C93" t="s"/>
+      <c r="B93" t="n">
+        <v>156157</v>
+      </c>
+      <c r="C93" t="s">
+        <v>796</v>
+      </c>
       <c r="D93" t="n">
         <v>92</v>
       </c>
       <c r="E93" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F93" t="s">
-        <v>709</v>
+        <v>797</v>
       </c>
       <c r="G93" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H93" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I93" t="s">
-        <v>710</v>
+        <v>798</v>
       </c>
       <c r="J93" t="s">
-        <v>711</v>
+        <v>799</v>
       </c>
       <c r="K93" t="s">
-        <v>712</v>
+        <v>800</v>
       </c>
       <c r="L93" t="s">
-        <v>713</v>
+        <v>801</v>
       </c>
       <c r="M93" t="n">
         <v>4</v>
       </c>
       <c r="N93" t="s">
-        <v>714</v>
+        <v>802</v>
       </c>
       <c r="O93" t="s">
-        <v>166</v>
+        <v>181</v>
       </c>
       <c r="P93" t="n">
         <v>4</v>
@@ -8814,50 +9447,54 @@
       <c r="W93" t="s"/>
       <c r="X93" t="s"/>
       <c r="Y93" t="s">
-        <v>713</v>
+        <v>801</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
         <v>55716</v>
       </c>
-      <c r="B94" t="s"/>
-      <c r="C94" t="s"/>
+      <c r="B94" t="n">
+        <v>156158</v>
+      </c>
+      <c r="C94" t="s">
+        <v>803</v>
+      </c>
       <c r="D94" t="n">
         <v>93</v>
       </c>
       <c r="E94" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F94" t="s">
-        <v>715</v>
+        <v>804</v>
       </c>
       <c r="G94" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H94" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I94" t="s">
-        <v>716</v>
+        <v>805</v>
       </c>
       <c r="J94" t="s">
-        <v>717</v>
+        <v>806</v>
       </c>
       <c r="K94" t="s">
-        <v>718</v>
+        <v>807</v>
       </c>
       <c r="L94" t="s">
-        <v>719</v>
+        <v>808</v>
       </c>
       <c r="M94" t="n">
         <v>4</v>
       </c>
       <c r="N94" t="s">
-        <v>720</v>
+        <v>809</v>
       </c>
       <c r="O94" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P94" t="n">
         <v>4</v>
@@ -8881,50 +9518,54 @@
       <c r="W94" t="s"/>
       <c r="X94" t="s"/>
       <c r="Y94" t="s">
-        <v>719</v>
+        <v>808</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
         <v>55716</v>
       </c>
-      <c r="B95" t="s"/>
-      <c r="C95" t="s"/>
+      <c r="B95" t="n">
+        <v>33767</v>
+      </c>
+      <c r="C95" t="s">
+        <v>810</v>
+      </c>
       <c r="D95" t="n">
         <v>94</v>
       </c>
       <c r="E95" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F95" t="s">
-        <v>721</v>
+        <v>811</v>
       </c>
       <c r="G95" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H95" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I95" t="s">
-        <v>722</v>
+        <v>812</v>
       </c>
       <c r="J95" t="s">
-        <v>723</v>
+        <v>813</v>
       </c>
       <c r="K95" t="s">
-        <v>724</v>
+        <v>814</v>
       </c>
       <c r="L95" t="s">
-        <v>725</v>
+        <v>815</v>
       </c>
       <c r="M95" t="n">
         <v>4</v>
       </c>
       <c r="N95" t="s">
-        <v>720</v>
+        <v>809</v>
       </c>
       <c r="O95" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P95" t="n">
         <v>4</v>
@@ -8948,50 +9589,54 @@
       <c r="W95" t="s"/>
       <c r="X95" t="s"/>
       <c r="Y95" t="s">
-        <v>726</v>
+        <v>816</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
         <v>55716</v>
       </c>
-      <c r="B96" t="s"/>
-      <c r="C96" t="s"/>
+      <c r="B96" t="n">
+        <v>156159</v>
+      </c>
+      <c r="C96" t="s">
+        <v>817</v>
+      </c>
       <c r="D96" t="n">
         <v>95</v>
       </c>
       <c r="E96" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F96" t="s">
-        <v>727</v>
+        <v>818</v>
       </c>
       <c r="G96" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H96" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I96" t="s">
-        <v>728</v>
+        <v>819</v>
       </c>
       <c r="J96" t="s">
-        <v>729</v>
+        <v>820</v>
       </c>
       <c r="K96" t="s">
-        <v>730</v>
+        <v>821</v>
       </c>
       <c r="L96" t="s">
-        <v>731</v>
+        <v>822</v>
       </c>
       <c r="M96" t="n">
         <v>5</v>
       </c>
       <c r="N96" t="s">
-        <v>732</v>
+        <v>823</v>
       </c>
       <c r="O96" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P96" t="n">
         <v>3</v>
@@ -9015,7 +9660,7 @@
       <c r="W96" t="s"/>
       <c r="X96" t="s"/>
       <c r="Y96" t="s">
-        <v>731</v>
+        <v>822</v>
       </c>
     </row>
   </sheetData>
